--- a/500all/speech_level/speeches_CHRG-114hhrg93599.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg93599.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="164">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>412468</t>
   </si>
   <si>
-    <t>Tom Marino</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Marino. Good afternoon. I want to thank you for being here, and the Subcommittee on Regulatory Reform, Commercial and Antitrust Law will come to order.    Without objection, the Chair's authorized to declare recesses of the Committee at any time.    We welcome everyone to today's hearing on H.R. 348, the ``Responsibly And Professionally Invigorating Development Act of 2015,'' also known as the ``RAPID Act,'' H.R. 712, the ``Sunshine for Regulatory Decrees and Settlements Act of 2015,'' and H.R. 1155, the ``Searching for and Cutting Regulations that are Unnecessarily Burdensome (SCRUB) Act of 2015.''    I will recognize myself for my opening statement. The American historical record has always been, ``the worse the recession, the stronger the recovery.'' Regrettably for many Americans I think we can all agree the recovery from the recession has been anything but strong. According to the Federal Reserve Bank of Minneapolis in the 10 previous recessions since the depression, the economy recovered all jobs lost during the recession after an average of 25 months from the prior jobs peek.    Under the current Administration however, it took until June 2014, 78 months after the prior jobs peek or 6 and a half years later for even The New York Times to claim we had recovered all of the recession's job losses. Besides losing paychecks, many of Americans have lost the dignity and satisfaction that comes from earning a living and supporting a family with a full time job. No government benefit can compensate a person for that.    Americans are ready to work. Employers are eager to create jobs, if only the government could just get out of the way. As we will hear from the witnesses today the job opportunities are here on U.S. soil. A study of proposed projects in just one sector of the economy, the energy sector found that if a modest number of these projects were allowed to go forward and break ground and the direct and indirect economic benefits would be tremendous. It identified 351 projects if approved to generate $1.1 trillion and create 1.9 million jobs annually.    The U.S. Chamber of Commerce's study, Project No Project, looked at the potential economic impact of permitting challenges faced by U.S. companies attempting to propose new energy projects. For example, Penn-Mar Ethanol attempted to construct an ethanol reducing plant in Conoy Township Pennsylvania, but neighboring Hellam Township sent a letter to--excuse me, Conoy Township's board of supervisors objecting to the ethanol plan. Hellam Townships objections included environmental risks to the surrounding area and a risk of causing the beautiful area surrounding the Susquehanna River to become an undesirable site. Is that when we mean when we talk about negative environmental impact and obstructed scenic view? Certainly job creators can't be effective in creating jobs until such an over expansive extreme regime.    After hearing about the numerous projects currently awaiting approval, many of us might be asking ourselves if the workers are here, and the jobs are here, then what's keeping workers idle? Well, I will tell you, it is our outdated, burdensome, convoluted, Federal permitting process that has become a hotbed for the environmental extremists looking to hold up infrastructure of building and growth that our country so desperately needs.    Today there is no limit to the objections various agencies can raise. Environmental reviews not uncommonly take up to a decade or more holding jobs hostage in the process. Antigrowth, antipermitting advocates meanwhile can lie in the weeds for another 6 years once a permit is finally granted, before ambushing good faith project developers with dilatory job and project killing litigation.    Instead of empowering businesses to be the engine of our economy, we instead tie them up with thousands of pages of decisions in interminable administrative and litigation delays. This is incomprehensible to anyone but a specialist, a costly legal team or a so-called advocacy group that seeks to kill economic activity and the jobs in growth for hardworking Americans that come with it.    I introduced the RAPID Act to right the ship, restore balance and impose sanity on our Federal permitting system. My esteemed colleague Mr. Collins from Georgia and Mr. Smith from Missouri similarly introduced the Sunshine for Regulatory Decrees and Settlements Act and the SCRUB Act to achieve the same thing in litigation that seeks to force new regulations in an effort to clear from the code of Federal regulations overburdensome regulations we no longer need.    The key to these reforms is balance, and each of these reforms has that. My RAPID Act strikes the right balance between conservation, and deployment, and development.    The Sunshine for Regulatory Decrees and Settlement Act strikes the right balance between respect for plaintiffs and defendant's right and regulatory litigation in fairness to regulate entities in State coregulators that must bear the burden of living under and implementing new regulations.    And the SCRUB Act strikes the right balance between keeping regulations we still need in scrubbing from the books regulations that are unnecessary obstacles to jobs and growth. I thank our witnesses for attending and sharing their valuable expertise with us and look forward to their testimony.    It is my pleasure now to recognize the gentleman from Georgia, the Ranking Member of the Subcommittee on Regulatory Reform, Commercial and Antitrust Law, Congressman Johnson.</t>
   </si>
   <si>
     <t>412199</t>
   </si>
   <si>
-    <t>Henry C. "Hank" Johnson, Jr.</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Johnson. Thank you, Mr. Chairman.    In 1981 a professor of law at the University of Chicago described the difference between the parties as quite simple, while cautioning Republicans against the fervent pursuit of regulatory reform stating, Democrats want to run the country and Republicans don't want them to. Republicans seem delighted in the prospect of legislation that will make change more difficult. Where government action is needed by the private sector as it is for the licensing of new nuclear plants, the procedural safeguards and judicial review protections so carefully nurtured in other contexts by the corporate bar have proven to be a Frankenstein, affording licensing opponents, unlimited opportunities to impose costly delays.    The professor concluded that regulatory reform measures do not deter regulation, they deter change no matter the cost of inaction. That professor would go on to become an Associate Justice of the United States Supreme Court and his name, none other than Antonin Scalia. It is indeed rare for me to quote Justice Scalia in any context, let alone with approval, but I'm struck by the prescience of the Justice over 3 decades ago in describing the short-sighted nature of proponents of regulatory reform.    During today's hearing this Subcommittee will consider three pieces of legislation that do absolutely nothing to protect the public interest, grow the economy or create jobs. The only connection between these bills is their bold corporatism. H.R. 348, the so-called Responsibly and Professionally Invigorating Development Act of 2015 will result in widespread confusion and delay in the review and permitting process under the National Environmental Policy Act by carving out a separate environmental review process for construction projects, which the bill doesn't even define. And if an agency fails to meet the unrealistic deadlines mandated by H.R. 348, the bill would automatically green light a project regardless of whether the agency has thoroughly reviewed the project's risks.    This legislation is a solution feverishly in search of a problem. The nonpartisan Congressional Research Service reported in 2012 that project approval delays based on environmental requirements are not caused by NEPA, but are more often tied to local, State and project specific factors, primarily local state agency priorities, project funding levels, local opposition to a project, project complexity or late changes in project scope.    I also have serious concerns with H.R. 712, the ``Sunshine for Regulatory Decrees and Settlements Act of 2015.'' Consent decrees and settlement agreements help ensure that agencies take necessary action by a certain date. The Government Accountability Office also reported in December of 2014 that there is zero evidence indicating that agencies collude with public interest groups in bringing these consent decrees that the Chamber has often claimed.    H.R. 712 would allow for nearly any private party to intervene in a consent decree revealing the legislation's true purpose of stacking the deck in industry's favor to avoid the enforcement of the law.    Lastly, H.R. 1155, the ``SCRUB Act'' is a one-way ratchet with the sole aim of prioritizing cost over benefits through the reckless elimination of rules without consideration of their benefits. This legislation would shift the cost of rules from corporations to consumers while posing substantial burdens and delays to agencies undermining public health and safety. It is indeed an act that should be scrubbed.    In closing, I strongly oppose each of these deregulatory train wrecks that comprise the subject of today's hearing.    And I yield back.</t>
   </si>
   <si>
@@ -73,45 +67,30 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Goodlatte</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Goodlatte. Thank you, Mr. Chairman.    America's voters sent the 114th Congress to Washington to do one thing above all other others, help turn around this Nation's struggling economy. From the outset of the term, the Judiciary Committee has responded to that mandate with urgently needed reforms of Washington's regulatory system. A system that virtually every day places new obstacles in the path of American jobs and economic growth.    Already the House has passed two critical Judiciary Committee regulatory reform bills. The Regulatory Accountability Act to force regulators to account for and control far better the excessive cost of new regulations and the Small Business Regulatory Flexibility Improvements Act to force regulators finally to accommodate better the needs of small businesses when they issue new regulations.    Today's hearing considers three more integral parts of the Judiciary Committee's regulatory reform package, the RAPID Act, the Sunshine for Regulatory Decrees and Settlements Act and the Searching for and Cutting Regulations That Are Unnecessarily Burdensome or SCRUB Act.    The RAPID Act contains common sense reform to streamline permitting for Federally funded and Federally permitted construction projects. It gives lead agencies more power to conduct and conclude efficient interagency reviews of permit requests and requires lawsuits that challenge permitting decisions to be filed within 6 months of the decisions. These are simple but powerful reforms that will allow good projects to move forward more quickly delivering high quality jobs and improvements to American daily lives.    The Sunshine for Regulatory Decrees and Settlements Act curbs the abuse of sue and settle consent decrees and settlement agreements to force through new regulations under judicial authority without adequate consideration of the views of those who are regulated and of the States who so often must shoulder the hard work of implementing Federal regulatory decisions.    Finally, the SCRUB Act institutes a blue ribbon commission to help identify and eliminate costly regulations that can safely be removed from the code of regulations. These include, for example, regulations that have achieved their purpose and are no longer truly needed, imposed paperwork burdens that can be reduced substantially without significantly undercutting regulatory effectiveness or impede the new introduction of new, safer and more efficient technologies.    Opponents of these bills contend that there are no problems with regulations or that these bills overreact to the problems and would bring needed regulatory actions to a halt. The American people know better. In the middle of it this winter's historic cold, ask any worker displaced by a new ideologically driven power plant regulation how warm they are as they continue in vain to look for a new job.    Ask any farmer who fears that the Environmental Protection Agency's new Waters of the United States rule will place Federal permitting shackles on the use of their property because once in a while there is a puddle in a middle of field.    Ask municipality and manufacturers across the country that will not be able to grow because of the EPA's new ozone rule, the most costly single regulation ever issued. Like each bill in the Judiciary Committee's regulatory reform package, each of these bills contains well thought out balanced reforms. They allow needed regulatory actions to take place but provide for more transparency, more public input and more accountability in the regulatory process. They also provide for more efficient decisionmaking and more effective tools to prevent or remove from the books regulatory actions that are not needed, are ill-considered or are the overreaching fruits of back door sweetheart negotiations between regulators and pro regulatory advocates.    I urge my colleagues to consider well and support these important pieces of legislation. I look forward to the testimony of our witnesses.    And I yield back, thank you, Mr. Chairman.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Marino. Thank you, Chairman.    It is new my pleasure to recognize the Judiciary Committee Ranking Member, Mr. Conyers of Michigan for his opening statement.</t>
   </si>
   <si>
-    <t>Conyers</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Conyers. Thank you.    We seem to have on the Committee very differing views of what we're going to be talking about today, I suppose the witnesses have picked up on that already.    I'd like to describe what I think are three thoroughly flawed bills, and I begin with H.R. 348 the misleadingly titled ``Responsibly And Professionally Invigorating Development Act of 2015.'' Rather than making real reforms to the process which Federal agencies undertake environmental impact reviews as required by the National Environmental Policy Act, this legislation will make this process less responsible, less professional and less accountable.    I think that will come out during the course of our discussion between us today. But worse yet this measure could jeopardize public health and safety by prioritizing speed over meaningful analysis. Under the guise of streamlining the approval process, the bill forecloses potentially critical input from various stakeholders, including Federal, State and local agencies for construction projects that are Federally funded or that require Federal approval.    Disturbingly, this measure could even allow such projects to be approved before the required review is completed. As a result, H.R. 348 could allow projects to proceed that put public health and safety at risk. These failings along with many others explain why the Administration and the President's Council on Environmental Quality, along with 25 respected environmental groups, including the Audubon Society, the League of Conservation Voters, Natural Resources Defense Council and the Sierra Club strenuously oppose similar legislation considered in the last Congress.    The next bill, H.R. 712, the ``Sunshine for Regulatory Decrees and Settlements Act of 2015,'' has a simple goal, to greatly discourage the use of settlement agreements and consent decrees by Federal agencies when they fail to meet their regulatory obligations as mandated by Congress.    Why is this bill problematic? Well, here are a few reasons, as with the prior bill, H.R. 712 would effectively delay the implementation of regulatory protections, thereby jeopardizing public health and safety. For example, the bill gives opponents of regulation multiple opportunities to stifle rulemaking by allowing essentially any third party who is affected by the regulatory action at issue in a covered civil action to intervene in that civil action subject to rebuttal, to participate in settlement negotiations, and to submit public comments about a proposed consent decree or settlement agreement that agencies would be required to respond to before such decree or agreement can be entered in court.    Remember, Federal agencies are often sued for their failure to meet their statutory obligations, including missing rulemaking deadlines. Consent decrees and settlement agreements help to enforce the statutory mandates and assure that these agencies meet their obligations by a date certain. But, H.R. 712 would needlessly impede this enforcement process by imposing an extensive series of burdensome requirements on agencies seeking to enter into consent decrees or settlement agreements.    A broad coalition of civil rights, environmental consumer protection, and other public interest groups opposed a substantially similar bill considered in the 112th and the 113th Congresses. These organizations include the Alliance for Justice, the American Association for Justice, the Center for Food Safety, the Defenders of Wildlife, Earth Justice, the Natural Resources Defense Council and the Center for Effective Government and Public Citizen. Additionally, the Administration threatened to veto H.R. 712's predecessor from the 112th Congress, stating that it would spawn excessive regulatory litigation and introduce redundant processes for litigation settlements.    And finally, we have H.R. 1155, the ``Searching for and Cutting Regulations that are Unnecessarily Burdensome Act of 2015'' or for short the ``SCRUB Act.'' Most observers would agree in principle that retrospective review of existing regulations is a good idea. Agencies should periodically assess whether the rules they have promulgated are as effective as they can be or whether they are even necessary in light of changed circumstances. Unfortunately, the SCRUB Act would not simply require retrospective review, instead it is yet another attempt to hobble the ability of agencies to regulate and thereby prevent them from protecting public health and safety based on unsubstantiated rhetoric that regulations inhibit economic growth.    As a threshold matter, the central feature of the bill is the establishment of a commission to identify rules that should be eliminated. The commission would effectively be able to second guess the judgments of Congress and the agencies with respect to the need for certain rules and the science and analysis warranting such rule.    The bill reflects a blatantly one sized, unbalanced approach to retrospective review. For example, virtually all of the bills objectives and mechanisms are one-way ratchet. The measure is designed to result in the repeal or amendment of a rule only to eliminate or reduce costs regardless of the rules benefits. Tellingly, H.R. 1155 does absolutely nothing to promote actions that would enhance the benefits of rules.    In closing these measures threaten critical public health and safety protections. It's a shame that the majority has chosen to largely ignore the concerns of my colleagues and I have previously identified with these bills.    I thank the witnesses for appearing today and look forward to their testimony.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Marino. Thank you, Mr. Conyers.    Without objection, other Members opening statements will be made part of the record.    We have a very distinguished panel before us today.    And I will begin by swearing in our witnesses before introducing them.    If you would please rise and raise your right hand.    Do you swear that the testimony you are about to give is the truth, the whole truth, and nothing but the truth, so help you God?    Please let the record reflect that all the witnesses have responded in the affirmative, and you may be seated, gentlemen.    Our first witness is Mr. William Kovacs. Mr. Kovacs provides the overall direction, strategy and management for the environment, technology and regulatory affairs division as senior vice president of the division at the U.S. Chamber of Commerce. Since he joined the Chamber in March 1998, Mr. Kovacs has transformed a small division, concentrated on a handful of issues in Committee meetings into one of most significant in the organization. His division initiates and leads campaign issue campaigns on energy, legislation, complex environmental rulemaking, telecommunications reform, emerging technologies and applying sound science to the Federal regulatory process.    Mr. Kovacs previously served as chief counsel and staff director for the House Subcommittee on Transportation and Commerce. He earned his J.D. from the Ohio State University College of Law and a Bachelor's degree of science degree from the University of Scranton magna cum laude.    Welcome, sir.</t>
   </si>
   <si>
-    <t>Kovacs</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Kovacs. Thank you, Mr. Chairman.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Marino. Sir, I'm going to introduce everybody and then we will come back, do it that way.    Our second witness is Mr. Sam Batkins. Mr. Batkins is director of regulatory policy at the American Action Forum. Mr. Batkins research focuses on the rulemaking efforts of administrative agencies and related efforts of Congress. His work has appeared in The Wall Street Journal, The New York Times, the Hill, National Review Online, Reuters, the Washington Post among other publications.    Prior to joining the Forum, Mr. Batkins worked at the U.S. Chamber of Commerce Institute for Legal Reform and National Taxpayers Union. At the U.S. Chamber he focused on lawsuit abuse, tort reform and Federal regulations. At the National Taxpayers Union he focused on State and Federal spending. Mr. Batkins received his B.A. in political science summa cum laude from Sewanee, University of the South. He received his J.D. from Catholic University of America, Columbus School of Law. Welcome, sir.    Our next witness is Dr. Patrick McLaughlin. Am I pronouncing that correctly?</t>
   </si>
   <si>
-    <t>McLaughlin</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. McLaughlin. Yes.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Marino. Dr. McLaughlin is senior research fellow at the Mercatus Center for George Mason University. His research focuses on regulation and the regulatory process with additional interest in environmental economics, international trade, industrial organization, and transportation economics. And his research is regularly published.    Prior to joining Mercatus, Dr. McLaughlin served as a senior economist at the Federal railway administration in the United States Department of Transportation. Dr. McLaughlin has published in the fields of law and economics, public choice environmental economics and international trade. He owns a Ph.D. in economics from Clemson University, and welcome to you, sir.    And our final witness is Mr. Amit Narang.</t>
   </si>
   <si>
-    <t>Narang</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Narang. Very good.</t>
   </si>
   <si>
@@ -127,9 +106,6 @@
     <t xml:space="preserve">    Mr. Marino. Mr. Batkins.</t>
   </si>
   <si>
-    <t>Batkins</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Batkins. Thank you, Chairman Marino, Ranking Member Johnson and Members of the Subcommittee.    The Federal Government should endeavor to remove outdated regulations that stifle job creation and make our economy less competitive. That was President Obama echoing similar statements made from every President since Jimmy Carter. Both Presidents focused on regulatory accumulation and both tasked their agencies to look back at their existing regulatory slate and reform rules.    Yet more than a generation later, here we are again discussing reform regulation. And it is because regulatory reform has failed so often in the past that we continue to talk about its place in the future. When we say past reform has failed, it is not just a cavalier opinion, it is a fact. The agencies and the Administration tell us reform has failed. Every year the Office of Information and Regulatory Affairs OIRA discloses hundreds of paperwork violations. HHS alone was responsible for 80 violations last year.    When Congress amended the Paperwork Reduction Act in the 1990's, OIRA set a goal to reduce cumulative regulatory burdens by 35 percent, a reduction of 4.6 billion hours. Instead regulators increased paperwork hours by 17 percent.    Then, Congress passed the Congressional Review Act the CRA, they instructed agencies to send all rules including major regulations to Congress and the Government Accountability Office, they haven't. In a recent report Curtis Copeland, at the Administrative Conference of the United States found thousands of rules that violated the CRA, including 43 major rules.    In 2012, only 71.6 percent of Federal rules followed CRA procedure. I am sure regulators expect better compliance rates from companies and that Congress expects better performance from regulatory agencies. The history of regulatory reform instructs the debate today. It is clear that given the current resources at agencies, regulatory reform and looking back at existing rules might not be a major priority. And that's understandable, but just look at the retrospective reports that claim that new ACA rules or the regulation on for-profit colleges universities is somehow considered a regulatory lookback.    Either agencies examine past regulations and seek to improve their effectiveness or they implement rules that to add to the cumulative regulatory burden. Too often agencies practice the latter. If that's retrospective review, then everything is. Asking agencies to issue new regulations and examine the cumulative impact of existing rules appears to be asking for too much. This is why scholars from across the political spectrum have endorsed the idea of an independent commission charged with reviewing the regulatory burden. A body charged with conducting a comprehensive analysis of the regulatory state while ensuring that our regulations remain effective could yield tremendous benefits.    The goal is not to undue the regulatory state, the goal is to improve it. There is so much we simply don't know about the 175,000 pages of Federal regulation. This ignorance doesn't help us ensure the health and safety of Americans and it doesn't help us promote economic growth.    As President Carter and President Obama understood, there have been tremendous benefits to regulatory reform, and there are additional cost savings that could be achieved here today. According to our estimates, it's successful. It could generate approximately 1.5 billion hours of less paperwork for Americans, anywhere from 48 billion to 90 billion in reduced regulatory costs.    The dual goals of a thorough review of the entire regulatory system and reducing burdens by 15 percent are ambitious, but so were the initial executive orders on regulatory reform. While past attempts at reform might have been unsuccessful, there is no reason policymakers can't learn from previous mistakes and establish a balanced system that increases transparency, evaluates the regulatory slate and reduces burdens and rules all while protecting health and safety. These are bipartisan principles, standard practice internationally and not controversial ideas.    Thank you for the time. I look forward to answering your questions.</t>
   </si>
   <si>
@@ -166,9 +142,6 @@
     <t>412531</t>
   </si>
   <si>
-    <t>Doug Collins</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Collins. The Rules Committee.</t>
   </si>
   <si>
@@ -259,9 +232,6 @@
     <t>412636</t>
   </si>
   <si>
-    <t>David A. Trott</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Trott. Thank you, Mr. Chairman.    I want to thank all of the witnesses for their testimony.    Mr. Narang, have you ever run a business before?</t>
   </si>
   <si>
@@ -385,9 +355,6 @@
     <t>412653</t>
   </si>
   <si>
-    <t>John Ratcliffe</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Ratcliffe. Thank you, Mr. Chairman. I appreciate all the witnesses being here today.    Two weeks ago I spent a week back in my district representing the 18 counties of Northeast Texas, and in traveling that district, one of the things I heard over and over again from constituents as a primary concern was the growing size of our Federal Government. Most of the 700,000 Texans that I have the privilege to represent are angry at the growth of government in this country and the impact that decisions being made by unelected bureaucrats in those agencies are having on their everyday lives.    They see the effect of these decisions in the lunches that their kids eat at school, in the requirements for their dishwashers and for their ice makers and for their air conditioners. They're outraged by a proposed rule from the EPA which would turn the puddles in their back yards into the waters of the U.S., and now last week they saw a government takeover of the Internet through new net neutrality regulations.    Every one of these regulations is an abridgement of some freedom, and it comes with a price tag. In fact, the Competitive Enterprise Institute estimates that the cost of these mandated regulations is $15,000 per household, which is a staggering 23 percent of the average household income in the United States. Twenty-three percent of the income of average Americans shouldn't be held hostage by unelected bureaucrats.    Consistent with some of these excesses that I've mentioned, Mr. Batkins, you noted in your testimony that since 2008 regulators have added more than $107 billion in annual regulatory costs. Did I had hear that correctly?</t>
   </si>
   <si>
@@ -431,9 +398,6 @@
   </si>
   <si>
     <t>412523</t>
-  </si>
-  <si>
-    <t>Scott H. Peters</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Peters. Thank you very much.</t>
@@ -940,11 +904,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -964,13 +926,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -992,11 +952,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1016,13 +974,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1044,11 +1000,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1068,13 +1022,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1096,11 +1048,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1120,13 +1070,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1148,11 +1096,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1172,13 +1118,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1200,11 +1144,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1224,13 +1166,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" t="s">
-        <v>31</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1252,11 +1192,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1276,13 +1214,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1304,11 +1240,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1330,11 +1264,9 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1354,13 +1286,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" t="s">
-        <v>37</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1382,11 +1312,9 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1408,11 +1336,9 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1432,13 +1358,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1460,11 +1384,9 @@
       <c r="F22" t="s">
         <v>11</v>
       </c>
-      <c r="G22" t="s">
-        <v>12</v>
-      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1486,11 +1408,9 @@
       <c r="F23" t="s">
         <v>11</v>
       </c>
-      <c r="G23" t="s">
-        <v>12</v>
-      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1510,13 +1430,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" t="s">
-        <v>31</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1538,11 +1456,9 @@
       <c r="F25" t="s">
         <v>11</v>
       </c>
-      <c r="G25" t="s">
-        <v>12</v>
-      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1562,13 +1478,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>18</v>
-      </c>
-      <c r="G26" t="s">
-        <v>31</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1590,11 +1504,9 @@
       <c r="F27" t="s">
         <v>11</v>
       </c>
-      <c r="G27" t="s">
-        <v>12</v>
-      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1614,13 +1526,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>18</v>
-      </c>
-      <c r="G28" t="s">
-        <v>31</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1642,11 +1552,9 @@
       <c r="F29" t="s">
         <v>11</v>
       </c>
-      <c r="G29" t="s">
-        <v>12</v>
-      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1668,11 +1576,9 @@
       <c r="F30" t="s">
         <v>11</v>
       </c>
-      <c r="G30" t="s">
-        <v>12</v>
-      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1692,13 +1598,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>49</v>
-      </c>
-      <c r="G31" t="s">
-        <v>50</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1720,11 +1624,9 @@
       <c r="F32" t="s">
         <v>11</v>
       </c>
-      <c r="G32" t="s">
-        <v>12</v>
-      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1744,13 +1646,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>49</v>
-      </c>
-      <c r="G33" t="s">
-        <v>50</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1772,11 +1672,9 @@
       <c r="F34" t="s">
         <v>11</v>
       </c>
-      <c r="G34" t="s">
-        <v>12</v>
-      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1796,13 +1694,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>49</v>
-      </c>
-      <c r="G35" t="s">
-        <v>50</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1822,13 +1718,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>18</v>
-      </c>
-      <c r="G36" t="s">
-        <v>31</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1848,13 +1742,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>49</v>
-      </c>
-      <c r="G37" t="s">
-        <v>50</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1874,13 +1766,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>18</v>
-      </c>
-      <c r="G38" t="s">
-        <v>31</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1900,13 +1790,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>49</v>
-      </c>
-      <c r="G39" t="s">
+        <v>41</v>
+      </c>
+      <c r="G39" t="s"/>
+      <c r="H39" t="s">
         <v>50</v>
-      </c>
-      <c r="H39" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1928,11 +1816,9 @@
       <c r="F40" t="s">
         <v>11</v>
       </c>
-      <c r="G40" t="s">
-        <v>12</v>
-      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1952,13 +1838,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>14</v>
-      </c>
-      <c r="G41" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1980,11 +1864,9 @@
       <c r="F42" t="s">
         <v>11</v>
       </c>
-      <c r="G42" t="s">
-        <v>12</v>
-      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2004,13 +1886,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>14</v>
-      </c>
-      <c r="G43" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2030,13 +1910,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>18</v>
-      </c>
-      <c r="G44" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2056,13 +1934,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>14</v>
-      </c>
-      <c r="G45" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2082,13 +1958,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>18</v>
-      </c>
-      <c r="G46" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2108,13 +1982,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>14</v>
-      </c>
-      <c r="G47" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2134,13 +2006,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>18</v>
-      </c>
-      <c r="G48" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2160,13 +2030,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>14</v>
-      </c>
-      <c r="G49" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2186,13 +2054,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>18</v>
-      </c>
-      <c r="G50" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2212,13 +2078,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>14</v>
-      </c>
-      <c r="G51" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2238,13 +2102,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>18</v>
-      </c>
-      <c r="G52" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2264,13 +2126,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>14</v>
-      </c>
-      <c r="G53" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2290,13 +2150,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>18</v>
-      </c>
-      <c r="G54" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2316,13 +2174,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>14</v>
-      </c>
-      <c r="G55" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2342,13 +2198,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>18</v>
-      </c>
-      <c r="G56" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2368,13 +2222,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>14</v>
-      </c>
-      <c r="G57" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2394,13 +2246,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>18</v>
-      </c>
-      <c r="G58" t="s">
-        <v>31</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2420,13 +2270,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>14</v>
-      </c>
-      <c r="G59" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2448,11 +2296,9 @@
       <c r="F60" t="s">
         <v>11</v>
       </c>
-      <c r="G60" t="s">
-        <v>12</v>
-      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2472,13 +2318,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>80</v>
-      </c>
-      <c r="G61" t="s">
-        <v>81</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2498,13 +2342,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>18</v>
-      </c>
-      <c r="G62" t="s">
-        <v>31</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2524,13 +2366,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>80</v>
-      </c>
-      <c r="G63" t="s">
-        <v>81</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2550,13 +2390,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>18</v>
-      </c>
-      <c r="G64" t="s">
-        <v>31</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2576,13 +2414,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>80</v>
-      </c>
-      <c r="G65" t="s">
-        <v>81</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2602,13 +2438,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>18</v>
-      </c>
-      <c r="G66" t="s">
-        <v>31</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2628,13 +2462,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>80</v>
-      </c>
-      <c r="G67" t="s">
-        <v>81</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2654,13 +2486,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>18</v>
-      </c>
-      <c r="G68" t="s">
-        <v>31</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2680,13 +2510,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
+        <v>71</v>
+      </c>
+      <c r="G69" t="s"/>
+      <c r="H69" t="s">
         <v>80</v>
-      </c>
-      <c r="G69" t="s">
-        <v>81</v>
-      </c>
-      <c r="H69" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2706,13 +2534,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>18</v>
-      </c>
-      <c r="G70" t="s">
-        <v>31</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2732,13 +2558,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>80</v>
-      </c>
-      <c r="G71" t="s">
-        <v>81</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2758,13 +2582,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>18</v>
-      </c>
-      <c r="G72" t="s">
-        <v>31</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2784,13 +2606,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>80</v>
-      </c>
-      <c r="G73" t="s">
-        <v>81</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2810,13 +2630,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>18</v>
-      </c>
-      <c r="G74" t="s">
-        <v>31</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2836,13 +2654,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>80</v>
-      </c>
-      <c r="G75" t="s">
-        <v>81</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2862,13 +2678,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>18</v>
-      </c>
-      <c r="G76" t="s">
-        <v>31</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2888,13 +2702,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>80</v>
-      </c>
-      <c r="G77" t="s">
-        <v>81</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2914,13 +2726,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>18</v>
-      </c>
-      <c r="G78" t="s">
-        <v>31</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2940,13 +2750,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>80</v>
-      </c>
-      <c r="G79" t="s">
-        <v>81</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2966,13 +2774,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>18</v>
-      </c>
-      <c r="G80" t="s">
-        <v>31</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2992,13 +2798,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>80</v>
-      </c>
-      <c r="G81" t="s">
-        <v>81</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3018,13 +2822,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>18</v>
-      </c>
-      <c r="G82" t="s">
-        <v>31</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3044,13 +2846,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>80</v>
-      </c>
-      <c r="G83" t="s">
-        <v>81</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3070,13 +2870,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>18</v>
-      </c>
-      <c r="G84" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3096,13 +2894,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>80</v>
-      </c>
-      <c r="G85" t="s">
-        <v>81</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3124,11 +2920,9 @@
       <c r="F86" t="s">
         <v>11</v>
       </c>
-      <c r="G86" t="s">
-        <v>12</v>
-      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3148,13 +2942,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>18</v>
-      </c>
-      <c r="G87" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3174,13 +2966,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>18</v>
-      </c>
-      <c r="G88" t="s">
-        <v>31</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3200,13 +2990,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>18</v>
-      </c>
-      <c r="G89" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3226,13 +3014,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>18</v>
-      </c>
-      <c r="G90" t="s">
-        <v>31</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3252,13 +3038,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>18</v>
-      </c>
-      <c r="G91" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3278,13 +3062,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>18</v>
-      </c>
-      <c r="G92" t="s">
-        <v>31</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3304,13 +3086,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>18</v>
-      </c>
-      <c r="G93" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3330,13 +3110,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>18</v>
-      </c>
-      <c r="G94" t="s">
-        <v>31</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3356,13 +3134,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>18</v>
-      </c>
-      <c r="G95" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3382,13 +3158,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>18</v>
-      </c>
-      <c r="G96" t="s">
-        <v>31</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3408,13 +3182,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>18</v>
-      </c>
-      <c r="G97" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3434,13 +3206,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>18</v>
-      </c>
-      <c r="G98" t="s">
-        <v>31</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3460,13 +3230,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>18</v>
-      </c>
-      <c r="G99" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3488,11 +3256,9 @@
       <c r="F100" t="s">
         <v>11</v>
       </c>
-      <c r="G100" t="s">
-        <v>12</v>
-      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3512,13 +3278,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>122</v>
-      </c>
-      <c r="G101" t="s">
-        <v>123</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3538,13 +3302,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>18</v>
-      </c>
-      <c r="G102" t="s">
-        <v>37</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3564,13 +3326,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>122</v>
-      </c>
-      <c r="G103" t="s">
-        <v>123</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3590,13 +3350,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>18</v>
-      </c>
-      <c r="G104" t="s">
-        <v>37</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3616,13 +3374,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>122</v>
-      </c>
-      <c r="G105" t="s">
-        <v>123</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3642,13 +3398,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>18</v>
-      </c>
-      <c r="G106" t="s">
-        <v>37</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3668,13 +3422,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>122</v>
-      </c>
-      <c r="G107" t="s">
-        <v>123</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3694,13 +3446,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>18</v>
-      </c>
-      <c r="G108" t="s">
-        <v>37</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3720,13 +3470,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>122</v>
-      </c>
-      <c r="G109" t="s">
-        <v>123</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3746,13 +3494,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>18</v>
-      </c>
-      <c r="G110" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3772,13 +3518,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
+        <v>112</v>
+      </c>
+      <c r="G111" t="s"/>
+      <c r="H111" t="s">
         <v>122</v>
-      </c>
-      <c r="G111" t="s">
-        <v>123</v>
-      </c>
-      <c r="H111" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3800,11 +3544,9 @@
       <c r="F112" t="s">
         <v>11</v>
       </c>
-      <c r="G112" t="s">
-        <v>12</v>
-      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3824,13 +3566,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>18</v>
-      </c>
-      <c r="G113" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3852,11 +3592,9 @@
       <c r="F114" t="s">
         <v>11</v>
       </c>
-      <c r="G114" t="s">
-        <v>12</v>
-      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3876,13 +3614,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>18</v>
-      </c>
-      <c r="G115" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3902,13 +3638,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>138</v>
-      </c>
-      <c r="G116" t="s">
-        <v>139</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3928,13 +3662,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>18</v>
-      </c>
-      <c r="G117" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3956,11 +3688,9 @@
       <c r="F118" t="s">
         <v>11</v>
       </c>
-      <c r="G118" t="s">
-        <v>12</v>
-      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3980,13 +3710,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>138</v>
-      </c>
-      <c r="G119" t="s">
-        <v>139</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4006,13 +3734,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>18</v>
-      </c>
-      <c r="G120" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4032,13 +3758,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>138</v>
-      </c>
-      <c r="G121" t="s">
-        <v>139</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4058,13 +3782,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>18</v>
-      </c>
-      <c r="G122" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4084,13 +3806,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>138</v>
-      </c>
-      <c r="G123" t="s">
-        <v>139</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4110,13 +3830,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>18</v>
-      </c>
-      <c r="G124" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4136,13 +3854,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>138</v>
-      </c>
-      <c r="G125" t="s">
-        <v>139</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4162,13 +3878,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>18</v>
-      </c>
-      <c r="G126" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4188,13 +3902,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>138</v>
-      </c>
-      <c r="G127" t="s">
+        <v>127</v>
+      </c>
+      <c r="G127" t="s"/>
+      <c r="H127" t="s">
         <v>139</v>
-      </c>
-      <c r="H127" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4214,13 +3926,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>18</v>
-      </c>
-      <c r="G128" t="s">
-        <v>37</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4240,13 +3950,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>138</v>
-      </c>
-      <c r="G129" t="s">
-        <v>139</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4266,13 +3974,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>18</v>
-      </c>
-      <c r="G130" t="s">
-        <v>37</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4292,13 +3998,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>138</v>
-      </c>
-      <c r="G131" t="s">
-        <v>139</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4318,13 +4022,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>18</v>
-      </c>
-      <c r="G132" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4344,13 +4046,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>138</v>
-      </c>
-      <c r="G133" t="s">
-        <v>139</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4372,11 +4072,9 @@
       <c r="F134" t="s">
         <v>11</v>
       </c>
-      <c r="G134" t="s">
-        <v>12</v>
-      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4398,11 +4096,9 @@
       <c r="F135" t="s">
         <v>11</v>
       </c>
-      <c r="G135" t="s">
-        <v>12</v>
-      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4422,13 +4118,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>18</v>
-      </c>
-      <c r="G136" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4450,11 +4144,9 @@
       <c r="F137" t="s">
         <v>11</v>
       </c>
-      <c r="G137" t="s">
-        <v>12</v>
-      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4474,13 +4166,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>18</v>
-      </c>
-      <c r="G138" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4502,11 +4192,9 @@
       <c r="F139" t="s">
         <v>11</v>
       </c>
-      <c r="G139" t="s">
-        <v>12</v>
-      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4526,13 +4214,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>18</v>
-      </c>
-      <c r="G140" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4554,11 +4240,9 @@
       <c r="F141" t="s">
         <v>11</v>
       </c>
-      <c r="G141" t="s">
-        <v>12</v>
-      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4578,13 +4262,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>18</v>
-      </c>
-      <c r="G142" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4606,11 +4288,9 @@
       <c r="F143" t="s">
         <v>11</v>
       </c>
-      <c r="G143" t="s">
-        <v>12</v>
-      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4630,13 +4310,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>18</v>
-      </c>
-      <c r="G144" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4658,11 +4336,9 @@
       <c r="F145" t="s">
         <v>11</v>
       </c>
-      <c r="G145" t="s">
-        <v>12</v>
-      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4682,13 +4358,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>18</v>
-      </c>
-      <c r="G146" t="s">
-        <v>31</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4710,11 +4384,9 @@
       <c r="F147" t="s">
         <v>11</v>
       </c>
-      <c r="G147" t="s">
-        <v>12</v>
-      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4734,13 +4406,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>18</v>
-      </c>
-      <c r="G148" t="s">
-        <v>31</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4762,11 +4432,9 @@
       <c r="F149" t="s">
         <v>11</v>
       </c>
-      <c r="G149" t="s">
-        <v>12</v>
-      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4786,13 +4454,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>18</v>
-      </c>
-      <c r="G150" t="s">
-        <v>31</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4814,11 +4480,9 @@
       <c r="F151" t="s">
         <v>11</v>
       </c>
-      <c r="G151" t="s">
-        <v>12</v>
-      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg93599.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg93599.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="183">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,24 @@
     <t>412468</t>
   </si>
   <si>
+    <t>Marino</t>
+  </si>
+  <si>
+    <t>Tom</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Marino. Good afternoon. I want to thank you for being here, and the Subcommittee on Regulatory Reform, Commercial and Antitrust Law will come to order.    Without objection, the Chair's authorized to declare recesses of the Committee at any time.    We welcome everyone to today's hearing on H.R. 348, the ``Responsibly And Professionally Invigorating Development Act of 2015,'' also known as the ``RAPID Act,'' H.R. 712, the ``Sunshine for Regulatory Decrees and Settlements Act of 2015,'' and H.R. 1155, the ``Searching for and Cutting Regulations that are Unnecessarily Burdensome (SCRUB) Act of 2015.''    I will recognize myself for my opening statement. The American historical record has always been, ``the worse the recession, the stronger the recovery.'' Regrettably for many Americans I think we can all agree the recovery from the recession has been anything but strong. According to the Federal Reserve Bank of Minneapolis in the 10 previous recessions since the depression, the economy recovered all jobs lost during the recession after an average of 25 months from the prior jobs peek.    Under the current Administration however, it took until June 2014, 78 months after the prior jobs peek or 6 and a half years later for even The New York Times to claim we had recovered all of the recession's job losses. Besides losing paychecks, many of Americans have lost the dignity and satisfaction that comes from earning a living and supporting a family with a full time job. No government benefit can compensate a person for that.    Americans are ready to work. Employers are eager to create jobs, if only the government could just get out of the way. As we will hear from the witnesses today the job opportunities are here on U.S. soil. A study of proposed projects in just one sector of the economy, the energy sector found that if a modest number of these projects were allowed to go forward and break ground and the direct and indirect economic benefits would be tremendous. It identified 351 projects if approved to generate $1.1 trillion and create 1.9 million jobs annually.    The U.S. Chamber of Commerce's study, Project No Project, looked at the potential economic impact of permitting challenges faced by U.S. companies attempting to propose new energy projects. For example, Penn-Mar Ethanol attempted to construct an ethanol reducing plant in Conoy Township Pennsylvania, but neighboring Hellam Township sent a letter to--excuse me, Conoy Township's board of supervisors objecting to the ethanol plan. Hellam Townships objections included environmental risks to the surrounding area and a risk of causing the beautiful area surrounding the Susquehanna River to become an undesirable site. Is that when we mean when we talk about negative environmental impact and obstructed scenic view? Certainly job creators can't be effective in creating jobs until such an over expansive extreme regime.    After hearing about the numerous projects currently awaiting approval, many of us might be asking ourselves if the workers are here, and the jobs are here, then what's keeping workers idle? Well, I will tell you, it is our outdated, burdensome, convoluted, Federal permitting process that has become a hotbed for the environmental extremists looking to hold up infrastructure of building and growth that our country so desperately needs.    Today there is no limit to the objections various agencies can raise. Environmental reviews not uncommonly take up to a decade or more holding jobs hostage in the process. Antigrowth, antipermitting advocates meanwhile can lie in the weeds for another 6 years once a permit is finally granted, before ambushing good faith project developers with dilatory job and project killing litigation.    Instead of empowering businesses to be the engine of our economy, we instead tie them up with thousands of pages of decisions in interminable administrative and litigation delays. This is incomprehensible to anyone but a specialist, a costly legal team or a so-called advocacy group that seeks to kill economic activity and the jobs in growth for hardworking Americans that come with it.    I introduced the RAPID Act to right the ship, restore balance and impose sanity on our Federal permitting system. My esteemed colleague Mr. Collins from Georgia and Mr. Smith from Missouri similarly introduced the Sunshine for Regulatory Decrees and Settlements Act and the SCRUB Act to achieve the same thing in litigation that seeks to force new regulations in an effort to clear from the code of Federal regulations overburdensome regulations we no longer need.    The key to these reforms is balance, and each of these reforms has that. My RAPID Act strikes the right balance between conservation, and deployment, and development.    The Sunshine for Regulatory Decrees and Settlement Act strikes the right balance between respect for plaintiffs and defendant's right and regulatory litigation in fairness to regulate entities in State coregulators that must bear the burden of living under and implementing new regulations.    And the SCRUB Act strikes the right balance between keeping regulations we still need in scrubbing from the books regulations that are unnecessary obstacles to jobs and growth. I thank our witnesses for attending and sharing their valuable expertise with us and look forward to their testimony.    It is my pleasure now to recognize the gentleman from Georgia, the Ranking Member of the Subcommittee on Regulatory Reform, Commercial and Antitrust Law, Congressman Johnson.</t>
   </si>
   <si>
     <t>412199</t>
   </si>
   <si>
+    <t>Johnson</t>
+  </si>
+  <si>
+    <t>Henry</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Johnson. Thank you, Mr. Chairman.    In 1981 a professor of law at the University of Chicago described the difference between the parties as quite simple, while cautioning Republicans against the fervent pursuit of regulatory reform stating, Democrats want to run the country and Republicans don't want them to. Republicans seem delighted in the prospect of legislation that will make change more difficult. Where government action is needed by the private sector as it is for the licensing of new nuclear plants, the procedural safeguards and judicial review protections so carefully nurtured in other contexts by the corporate bar have proven to be a Frankenstein, affording licensing opponents, unlimited opportunities to impose costly delays.    The professor concluded that regulatory reform measures do not deter regulation, they deter change no matter the cost of inaction. That professor would go on to become an Associate Justice of the United States Supreme Court and his name, none other than Antonin Scalia. It is indeed rare for me to quote Justice Scalia in any context, let alone with approval, but I'm struck by the prescience of the Justice over 3 decades ago in describing the short-sighted nature of proponents of regulatory reform.    During today's hearing this Subcommittee will consider three pieces of legislation that do absolutely nothing to protect the public interest, grow the economy or create jobs. The only connection between these bills is their bold corporatism. H.R. 348, the so-called Responsibly and Professionally Invigorating Development Act of 2015 will result in widespread confusion and delay in the review and permitting process under the National Environmental Policy Act by carving out a separate environmental review process for construction projects, which the bill doesn't even define. And if an agency fails to meet the unrealistic deadlines mandated by H.R. 348, the bill would automatically green light a project regardless of whether the agency has thoroughly reviewed the project's risks.    This legislation is a solution feverishly in search of a problem. The nonpartisan Congressional Research Service reported in 2012 that project approval delays based on environmental requirements are not caused by NEPA, but are more often tied to local, State and project specific factors, primarily local state agency priorities, project funding levels, local opposition to a project, project complexity or late changes in project scope.    I also have serious concerns with H.R. 712, the ``Sunshine for Regulatory Decrees and Settlements Act of 2015.'' Consent decrees and settlement agreements help ensure that agencies take necessary action by a certain date. The Government Accountability Office also reported in December of 2014 that there is zero evidence indicating that agencies collude with public interest groups in bringing these consent decrees that the Chamber has often claimed.    H.R. 712 would allow for nearly any private party to intervene in a consent decree revealing the legislation's true purpose of stacking the deck in industry's favor to avoid the enforcement of the law.    Lastly, H.R. 1155, the ``SCRUB Act'' is a one-way ratchet with the sole aim of prioritizing cost over benefits through the reckless elimination of rules without consideration of their benefits. This legislation would shift the cost of rules from corporations to consumers while posing substantial burdens and delays to agencies undermining public health and safety. It is indeed an act that should be scrubbed.    In closing, I strongly oppose each of these deregulatory train wrecks that comprise the subject of today's hearing.    And I yield back.</t>
   </si>
   <si>
@@ -67,30 +82,45 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Goodlatte</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Goodlatte. Thank you, Mr. Chairman.    America's voters sent the 114th Congress to Washington to do one thing above all other others, help turn around this Nation's struggling economy. From the outset of the term, the Judiciary Committee has responded to that mandate with urgently needed reforms of Washington's regulatory system. A system that virtually every day places new obstacles in the path of American jobs and economic growth.    Already the House has passed two critical Judiciary Committee regulatory reform bills. The Regulatory Accountability Act to force regulators to account for and control far better the excessive cost of new regulations and the Small Business Regulatory Flexibility Improvements Act to force regulators finally to accommodate better the needs of small businesses when they issue new regulations.    Today's hearing considers three more integral parts of the Judiciary Committee's regulatory reform package, the RAPID Act, the Sunshine for Regulatory Decrees and Settlements Act and the Searching for and Cutting Regulations That Are Unnecessarily Burdensome or SCRUB Act.    The RAPID Act contains common sense reform to streamline permitting for Federally funded and Federally permitted construction projects. It gives lead agencies more power to conduct and conclude efficient interagency reviews of permit requests and requires lawsuits that challenge permitting decisions to be filed within 6 months of the decisions. These are simple but powerful reforms that will allow good projects to move forward more quickly delivering high quality jobs and improvements to American daily lives.    The Sunshine for Regulatory Decrees and Settlements Act curbs the abuse of sue and settle consent decrees and settlement agreements to force through new regulations under judicial authority without adequate consideration of the views of those who are regulated and of the States who so often must shoulder the hard work of implementing Federal regulatory decisions.    Finally, the SCRUB Act institutes a blue ribbon commission to help identify and eliminate costly regulations that can safely be removed from the code of regulations. These include, for example, regulations that have achieved their purpose and are no longer truly needed, imposed paperwork burdens that can be reduced substantially without significantly undercutting regulatory effectiveness or impede the new introduction of new, safer and more efficient technologies.    Opponents of these bills contend that there are no problems with regulations or that these bills overreact to the problems and would bring needed regulatory actions to a halt. The American people know better. In the middle of it this winter's historic cold, ask any worker displaced by a new ideologically driven power plant regulation how warm they are as they continue in vain to look for a new job.    Ask any farmer who fears that the Environmental Protection Agency's new Waters of the United States rule will place Federal permitting shackles on the use of their property because once in a while there is a puddle in a middle of field.    Ask municipality and manufacturers across the country that will not be able to grow because of the EPA's new ozone rule, the most costly single regulation ever issued. Like each bill in the Judiciary Committee's regulatory reform package, each of these bills contains well thought out balanced reforms. They allow needed regulatory actions to take place but provide for more transparency, more public input and more accountability in the regulatory process. They also provide for more efficient decisionmaking and more effective tools to prevent or remove from the books regulatory actions that are not needed, are ill-considered or are the overreaching fruits of back door sweetheart negotiations between regulators and pro regulatory advocates.    I urge my colleagues to consider well and support these important pieces of legislation. I look forward to the testimony of our witnesses.    And I yield back, thank you, Mr. Chairman.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Marino. Thank you, Chairman.    It is new my pleasure to recognize the Judiciary Committee Ranking Member, Mr. Conyers of Michigan for his opening statement.</t>
   </si>
   <si>
+    <t>Conyers</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Conyers. Thank you.    We seem to have on the Committee very differing views of what we're going to be talking about today, I suppose the witnesses have picked up on that already.    I'd like to describe what I think are three thoroughly flawed bills, and I begin with H.R. 348 the misleadingly titled ``Responsibly And Professionally Invigorating Development Act of 2015.'' Rather than making real reforms to the process which Federal agencies undertake environmental impact reviews as required by the National Environmental Policy Act, this legislation will make this process less responsible, less professional and less accountable.    I think that will come out during the course of our discussion between us today. But worse yet this measure could jeopardize public health and safety by prioritizing speed over meaningful analysis. Under the guise of streamlining the approval process, the bill forecloses potentially critical input from various stakeholders, including Federal, State and local agencies for construction projects that are Federally funded or that require Federal approval.    Disturbingly, this measure could even allow such projects to be approved before the required review is completed. As a result, H.R. 348 could allow projects to proceed that put public health and safety at risk. These failings along with many others explain why the Administration and the President's Council on Environmental Quality, along with 25 respected environmental groups, including the Audubon Society, the League of Conservation Voters, Natural Resources Defense Council and the Sierra Club strenuously oppose similar legislation considered in the last Congress.    The next bill, H.R. 712, the ``Sunshine for Regulatory Decrees and Settlements Act of 2015,'' has a simple goal, to greatly discourage the use of settlement agreements and consent decrees by Federal agencies when they fail to meet their regulatory obligations as mandated by Congress.    Why is this bill problematic? Well, here are a few reasons, as with the prior bill, H.R. 712 would effectively delay the implementation of regulatory protections, thereby jeopardizing public health and safety. For example, the bill gives opponents of regulation multiple opportunities to stifle rulemaking by allowing essentially any third party who is affected by the regulatory action at issue in a covered civil action to intervene in that civil action subject to rebuttal, to participate in settlement negotiations, and to submit public comments about a proposed consent decree or settlement agreement that agencies would be required to respond to before such decree or agreement can be entered in court.    Remember, Federal agencies are often sued for their failure to meet their statutory obligations, including missing rulemaking deadlines. Consent decrees and settlement agreements help to enforce the statutory mandates and assure that these agencies meet their obligations by a date certain. But, H.R. 712 would needlessly impede this enforcement process by imposing an extensive series of burdensome requirements on agencies seeking to enter into consent decrees or settlement agreements.    A broad coalition of civil rights, environmental consumer protection, and other public interest groups opposed a substantially similar bill considered in the 112th and the 113th Congresses. These organizations include the Alliance for Justice, the American Association for Justice, the Center for Food Safety, the Defenders of Wildlife, Earth Justice, the Natural Resources Defense Council and the Center for Effective Government and Public Citizen. Additionally, the Administration threatened to veto H.R. 712's predecessor from the 112th Congress, stating that it would spawn excessive regulatory litigation and introduce redundant processes for litigation settlements.    And finally, we have H.R. 1155, the ``Searching for and Cutting Regulations that are Unnecessarily Burdensome Act of 2015'' or for short the ``SCRUB Act.'' Most observers would agree in principle that retrospective review of existing regulations is a good idea. Agencies should periodically assess whether the rules they have promulgated are as effective as they can be or whether they are even necessary in light of changed circumstances. Unfortunately, the SCRUB Act would not simply require retrospective review, instead it is yet another attempt to hobble the ability of agencies to regulate and thereby prevent them from protecting public health and safety based on unsubstantiated rhetoric that regulations inhibit economic growth.    As a threshold matter, the central feature of the bill is the establishment of a commission to identify rules that should be eliminated. The commission would effectively be able to second guess the judgments of Congress and the agencies with respect to the need for certain rules and the science and analysis warranting such rule.    The bill reflects a blatantly one sized, unbalanced approach to retrospective review. For example, virtually all of the bills objectives and mechanisms are one-way ratchet. The measure is designed to result in the repeal or amendment of a rule only to eliminate or reduce costs regardless of the rules benefits. Tellingly, H.R. 1155 does absolutely nothing to promote actions that would enhance the benefits of rules.    In closing these measures threaten critical public health and safety protections. It's a shame that the majority has chosen to largely ignore the concerns of my colleagues and I have previously identified with these bills.    I thank the witnesses for appearing today and look forward to their testimony.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Marino. Thank you, Mr. Conyers.    Without objection, other Members opening statements will be made part of the record.    We have a very distinguished panel before us today.    And I will begin by swearing in our witnesses before introducing them.    If you would please rise and raise your right hand.    Do you swear that the testimony you are about to give is the truth, the whole truth, and nothing but the truth, so help you God?    Please let the record reflect that all the witnesses have responded in the affirmative, and you may be seated, gentlemen.    Our first witness is Mr. William Kovacs. Mr. Kovacs provides the overall direction, strategy and management for the environment, technology and regulatory affairs division as senior vice president of the division at the U.S. Chamber of Commerce. Since he joined the Chamber in March 1998, Mr. Kovacs has transformed a small division, concentrated on a handful of issues in Committee meetings into one of most significant in the organization. His division initiates and leads campaign issue campaigns on energy, legislation, complex environmental rulemaking, telecommunications reform, emerging technologies and applying sound science to the Federal regulatory process.    Mr. Kovacs previously served as chief counsel and staff director for the House Subcommittee on Transportation and Commerce. He earned his J.D. from the Ohio State University College of Law and a Bachelor's degree of science degree from the University of Scranton magna cum laude.    Welcome, sir.</t>
   </si>
   <si>
+    <t>Kovacs</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Kovacs. Thank you, Mr. Chairman.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Marino. Sir, I'm going to introduce everybody and then we will come back, do it that way.    Our second witness is Mr. Sam Batkins. Mr. Batkins is director of regulatory policy at the American Action Forum. Mr. Batkins research focuses on the rulemaking efforts of administrative agencies and related efforts of Congress. His work has appeared in The Wall Street Journal, The New York Times, the Hill, National Review Online, Reuters, the Washington Post among other publications.    Prior to joining the Forum, Mr. Batkins worked at the U.S. Chamber of Commerce Institute for Legal Reform and National Taxpayers Union. At the U.S. Chamber he focused on lawsuit abuse, tort reform and Federal regulations. At the National Taxpayers Union he focused on State and Federal spending. Mr. Batkins received his B.A. in political science summa cum laude from Sewanee, University of the South. He received his J.D. from Catholic University of America, Columbus School of Law. Welcome, sir.    Our next witness is Dr. Patrick McLaughlin. Am I pronouncing that correctly?</t>
   </si>
   <si>
+    <t>McLaughlin</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. McLaughlin. Yes.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Marino. Dr. McLaughlin is senior research fellow at the Mercatus Center for George Mason University. His research focuses on regulation and the regulatory process with additional interest in environmental economics, international trade, industrial organization, and transportation economics. And his research is regularly published.    Prior to joining Mercatus, Dr. McLaughlin served as a senior economist at the Federal railway administration in the United States Department of Transportation. Dr. McLaughlin has published in the fields of law and economics, public choice environmental economics and international trade. He owns a Ph.D. in economics from Clemson University, and welcome to you, sir.    And our final witness is Mr. Amit Narang.</t>
   </si>
   <si>
+    <t>Narang</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Narang. Very good.</t>
   </si>
   <si>
@@ -106,6 +136,9 @@
     <t xml:space="preserve">    Mr. Marino. Mr. Batkins.</t>
   </si>
   <si>
+    <t>Batkins</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Batkins. Thank you, Chairman Marino, Ranking Member Johnson and Members of the Subcommittee.    The Federal Government should endeavor to remove outdated regulations that stifle job creation and make our economy less competitive. That was President Obama echoing similar statements made from every President since Jimmy Carter. Both Presidents focused on regulatory accumulation and both tasked their agencies to look back at their existing regulatory slate and reform rules.    Yet more than a generation later, here we are again discussing reform regulation. And it is because regulatory reform has failed so often in the past that we continue to talk about its place in the future. When we say past reform has failed, it is not just a cavalier opinion, it is a fact. The agencies and the Administration tell us reform has failed. Every year the Office of Information and Regulatory Affairs OIRA discloses hundreds of paperwork violations. HHS alone was responsible for 80 violations last year.    When Congress amended the Paperwork Reduction Act in the 1990's, OIRA set a goal to reduce cumulative regulatory burdens by 35 percent, a reduction of 4.6 billion hours. Instead regulators increased paperwork hours by 17 percent.    Then, Congress passed the Congressional Review Act the CRA, they instructed agencies to send all rules including major regulations to Congress and the Government Accountability Office, they haven't. In a recent report Curtis Copeland, at the Administrative Conference of the United States found thousands of rules that violated the CRA, including 43 major rules.    In 2012, only 71.6 percent of Federal rules followed CRA procedure. I am sure regulators expect better compliance rates from companies and that Congress expects better performance from regulatory agencies. The history of regulatory reform instructs the debate today. It is clear that given the current resources at agencies, regulatory reform and looking back at existing rules might not be a major priority. And that's understandable, but just look at the retrospective reports that claim that new ACA rules or the regulation on for-profit colleges universities is somehow considered a regulatory lookback.    Either agencies examine past regulations and seek to improve their effectiveness or they implement rules that to add to the cumulative regulatory burden. Too often agencies practice the latter. If that's retrospective review, then everything is. Asking agencies to issue new regulations and examine the cumulative impact of existing rules appears to be asking for too much. This is why scholars from across the political spectrum have endorsed the idea of an independent commission charged with reviewing the regulatory burden. A body charged with conducting a comprehensive analysis of the regulatory state while ensuring that our regulations remain effective could yield tremendous benefits.    The goal is not to undue the regulatory state, the goal is to improve it. There is so much we simply don't know about the 175,000 pages of Federal regulation. This ignorance doesn't help us ensure the health and safety of Americans and it doesn't help us promote economic growth.    As President Carter and President Obama understood, there have been tremendous benefits to regulatory reform, and there are additional cost savings that could be achieved here today. According to our estimates, it's successful. It could generate approximately 1.5 billion hours of less paperwork for Americans, anywhere from 48 billion to 90 billion in reduced regulatory costs.    The dual goals of a thorough review of the entire regulatory system and reducing burdens by 15 percent are ambitious, but so were the initial executive orders on regulatory reform. While past attempts at reform might have been unsuccessful, there is no reason policymakers can't learn from previous mistakes and establish a balanced system that increases transparency, evaluates the regulatory slate and reduces burdens and rules all while protecting health and safety. These are bipartisan principles, standard practice internationally and not controversial ideas.    Thank you for the time. I look forward to answering your questions.</t>
   </si>
   <si>
@@ -142,6 +175,12 @@
     <t>412531</t>
   </si>
   <si>
+    <t>Collins</t>
+  </si>
+  <si>
+    <t>Doug</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Collins. The Rules Committee.</t>
   </si>
   <si>
@@ -232,6 +271,12 @@
     <t>412636</t>
   </si>
   <si>
+    <t>Trott</t>
+  </si>
+  <si>
+    <t>Dave</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Trott. Thank you, Mr. Chairman.    I want to thank all of the witnesses for their testimony.    Mr. Narang, have you ever run a business before?</t>
   </si>
   <si>
@@ -355,6 +400,12 @@
     <t>412653</t>
   </si>
   <si>
+    <t>Ratcliffe</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Ratcliffe. Thank you, Mr. Chairman. I appreciate all the witnesses being here today.    Two weeks ago I spent a week back in my district representing the 18 counties of Northeast Texas, and in traveling that district, one of the things I heard over and over again from constituents as a primary concern was the growing size of our Federal Government. Most of the 700,000 Texans that I have the privilege to represent are angry at the growth of government in this country and the impact that decisions being made by unelected bureaucrats in those agencies are having on their everyday lives.    They see the effect of these decisions in the lunches that their kids eat at school, in the requirements for their dishwashers and for their ice makers and for their air conditioners. They're outraged by a proposed rule from the EPA which would turn the puddles in their back yards into the waters of the U.S., and now last week they saw a government takeover of the Internet through new net neutrality regulations.    Every one of these regulations is an abridgement of some freedom, and it comes with a price tag. In fact, the Competitive Enterprise Institute estimates that the cost of these mandated regulations is $15,000 per household, which is a staggering 23 percent of the average household income in the United States. Twenty-three percent of the income of average Americans shouldn't be held hostage by unelected bureaucrats.    Consistent with some of these excesses that I've mentioned, Mr. Batkins, you noted in your testimony that since 2008 regulators have added more than $107 billion in annual regulatory costs. Did I had hear that correctly?</t>
   </si>
   <si>
@@ -398,6 +449,12 @@
   </si>
   <si>
     <t>412523</t>
+  </si>
+  <si>
+    <t>Peters</t>
+  </si>
+  <si>
+    <t>Scott</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Peters. Thank you very much.</t>
@@ -854,7 +911,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H151"/>
+  <dimension ref="A1:I151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -862,7 +919,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -884,3605 +941,4220 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s"/>
-      <c r="H5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" t="s"/>
+      <c r="I5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
       <c r="H10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" t="s"/>
+      <c r="I11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
       <c r="H12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G13" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
       <c r="H14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G15" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" t="s"/>
+      <c r="I15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
       <c r="H16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
       <c r="H17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>16</v>
-      </c>
-      <c r="G18" t="s"/>
-      <c r="H18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G18" t="s">
+        <v>40</v>
+      </c>
+      <c r="H18" t="s"/>
+      <c r="I18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
       <c r="H19" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
       <c r="H20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>16</v>
-      </c>
-      <c r="G21" t="s"/>
-      <c r="H21" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G21" t="s">
+        <v>31</v>
+      </c>
+      <c r="H21" t="s"/>
+      <c r="I21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
       <c r="H22" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G23" t="s">
+        <v>13</v>
+      </c>
       <c r="H23" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>16</v>
-      </c>
-      <c r="G24" t="s"/>
-      <c r="H24" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G24" t="s">
+        <v>34</v>
+      </c>
+      <c r="H24" t="s"/>
+      <c r="I24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G25" t="s">
+        <v>13</v>
+      </c>
       <c r="H25" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>16</v>
-      </c>
-      <c r="G26" t="s"/>
-      <c r="H26" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G26" t="s">
+        <v>34</v>
+      </c>
+      <c r="H26" t="s"/>
+      <c r="I26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G27" t="s">
+        <v>13</v>
+      </c>
       <c r="H27" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>16</v>
-      </c>
-      <c r="G28" t="s"/>
-      <c r="H28" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G28" t="s">
+        <v>34</v>
+      </c>
+      <c r="H28" t="s"/>
+      <c r="I28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G29" t="s">
+        <v>13</v>
+      </c>
       <c r="H29" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I29" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G30" t="s">
+        <v>13</v>
+      </c>
       <c r="H30" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>41</v>
-      </c>
-      <c r="G31" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="G31" t="s">
+        <v>53</v>
+      </c>
       <c r="H31" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>54</v>
+      </c>
+      <c r="I31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G32" t="s">
+        <v>13</v>
+      </c>
       <c r="H32" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>41</v>
-      </c>
-      <c r="G33" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="G33" t="s">
+        <v>53</v>
+      </c>
       <c r="H33" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>54</v>
+      </c>
+      <c r="I33" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G34" t="s">
+        <v>13</v>
+      </c>
       <c r="H34" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I34" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>41</v>
-      </c>
-      <c r="G35" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="G35" t="s">
+        <v>53</v>
+      </c>
       <c r="H35" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>54</v>
+      </c>
+      <c r="I35" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>16</v>
-      </c>
-      <c r="G36" t="s"/>
-      <c r="H36" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G36" t="s">
+        <v>34</v>
+      </c>
+      <c r="H36" t="s"/>
+      <c r="I36" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>41</v>
-      </c>
-      <c r="G37" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="G37" t="s">
+        <v>53</v>
+      </c>
       <c r="H37" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>54</v>
+      </c>
+      <c r="I37" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>16</v>
-      </c>
-      <c r="G38" t="s"/>
-      <c r="H38" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G38" t="s">
+        <v>34</v>
+      </c>
+      <c r="H38" t="s"/>
+      <c r="I38" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>41</v>
-      </c>
-      <c r="G39" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="G39" t="s">
+        <v>53</v>
+      </c>
       <c r="H39" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>54</v>
+      </c>
+      <c r="I39" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>11</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G40" t="s">
+        <v>13</v>
+      </c>
       <c r="H40" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I40" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>13</v>
-      </c>
-      <c r="G41" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G41" t="s">
+        <v>17</v>
+      </c>
       <c r="H41" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I41" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>11</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G42" t="s">
+        <v>13</v>
+      </c>
       <c r="H42" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I42" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>13</v>
-      </c>
-      <c r="G43" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G43" t="s">
+        <v>17</v>
+      </c>
       <c r="H43" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I43" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>16</v>
-      </c>
-      <c r="G44" t="s"/>
-      <c r="H44" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G44" t="s">
+        <v>28</v>
+      </c>
+      <c r="H44" t="s"/>
+      <c r="I44" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>13</v>
-      </c>
-      <c r="G45" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G45" t="s">
+        <v>17</v>
+      </c>
       <c r="H45" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I45" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>16</v>
-      </c>
-      <c r="G46" t="s"/>
-      <c r="H46" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G46" t="s">
+        <v>28</v>
+      </c>
+      <c r="H46" t="s"/>
+      <c r="I46" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>13</v>
-      </c>
-      <c r="G47" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G47" t="s">
+        <v>17</v>
+      </c>
       <c r="H47" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I47" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>16</v>
-      </c>
-      <c r="G48" t="s"/>
-      <c r="H48" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G48" t="s">
+        <v>28</v>
+      </c>
+      <c r="H48" t="s"/>
+      <c r="I48" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>13</v>
-      </c>
-      <c r="G49" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G49" t="s">
+        <v>17</v>
+      </c>
       <c r="H49" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I49" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>16</v>
-      </c>
-      <c r="G50" t="s"/>
-      <c r="H50" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G50" t="s">
+        <v>28</v>
+      </c>
+      <c r="H50" t="s"/>
+      <c r="I50" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>13</v>
-      </c>
-      <c r="G51" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G51" t="s">
+        <v>17</v>
+      </c>
       <c r="H51" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I51" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>16</v>
-      </c>
-      <c r="G52" t="s"/>
-      <c r="H52" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G52" t="s">
+        <v>28</v>
+      </c>
+      <c r="H52" t="s"/>
+      <c r="I52" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>13</v>
-      </c>
-      <c r="G53" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G53" t="s">
+        <v>17</v>
+      </c>
       <c r="H53" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I53" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>16</v>
-      </c>
-      <c r="G54" t="s"/>
-      <c r="H54" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G54" t="s">
+        <v>28</v>
+      </c>
+      <c r="H54" t="s"/>
+      <c r="I54" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>13</v>
-      </c>
-      <c r="G55" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G55" t="s">
+        <v>17</v>
+      </c>
       <c r="H55" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I55" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>16</v>
-      </c>
-      <c r="G56" t="s"/>
-      <c r="H56" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G56" t="s">
+        <v>28</v>
+      </c>
+      <c r="H56" t="s"/>
+      <c r="I56" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>13</v>
-      </c>
-      <c r="G57" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G57" t="s">
+        <v>17</v>
+      </c>
       <c r="H57" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I57" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>16</v>
-      </c>
-      <c r="G58" t="s"/>
-      <c r="H58" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G58" t="s">
+        <v>34</v>
+      </c>
+      <c r="H58" t="s"/>
+      <c r="I58" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>13</v>
-      </c>
-      <c r="G59" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G59" t="s">
+        <v>17</v>
+      </c>
       <c r="H59" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I59" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>11</v>
-      </c>
-      <c r="G60" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G60" t="s">
+        <v>13</v>
+      </c>
       <c r="H60" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I60" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>71</v>
-      </c>
-      <c r="G61" t="s"/>
+        <v>84</v>
+      </c>
+      <c r="G61" t="s">
+        <v>85</v>
+      </c>
       <c r="H61" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>86</v>
+      </c>
+      <c r="I61" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>16</v>
-      </c>
-      <c r="G62" t="s"/>
-      <c r="H62" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G62" t="s">
+        <v>34</v>
+      </c>
+      <c r="H62" t="s"/>
+      <c r="I62" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>71</v>
-      </c>
-      <c r="G63" t="s"/>
+        <v>84</v>
+      </c>
+      <c r="G63" t="s">
+        <v>85</v>
+      </c>
       <c r="H63" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>86</v>
+      </c>
+      <c r="I63" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>16</v>
-      </c>
-      <c r="G64" t="s"/>
-      <c r="H64" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G64" t="s">
+        <v>34</v>
+      </c>
+      <c r="H64" t="s"/>
+      <c r="I64" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>71</v>
-      </c>
-      <c r="G65" t="s"/>
+        <v>84</v>
+      </c>
+      <c r="G65" t="s">
+        <v>85</v>
+      </c>
       <c r="H65" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>86</v>
+      </c>
+      <c r="I65" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>16</v>
-      </c>
-      <c r="G66" t="s"/>
-      <c r="H66" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G66" t="s">
+        <v>34</v>
+      </c>
+      <c r="H66" t="s"/>
+      <c r="I66" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>71</v>
-      </c>
-      <c r="G67" t="s"/>
+        <v>84</v>
+      </c>
+      <c r="G67" t="s">
+        <v>85</v>
+      </c>
       <c r="H67" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>86</v>
+      </c>
+      <c r="I67" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>16</v>
-      </c>
-      <c r="G68" t="s"/>
-      <c r="H68" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G68" t="s">
+        <v>34</v>
+      </c>
+      <c r="H68" t="s"/>
+      <c r="I68" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>71</v>
-      </c>
-      <c r="G69" t="s"/>
+        <v>84</v>
+      </c>
+      <c r="G69" t="s">
+        <v>85</v>
+      </c>
       <c r="H69" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>86</v>
+      </c>
+      <c r="I69" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>16</v>
-      </c>
-      <c r="G70" t="s"/>
-      <c r="H70" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G70" t="s">
+        <v>34</v>
+      </c>
+      <c r="H70" t="s"/>
+      <c r="I70" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>71</v>
-      </c>
-      <c r="G71" t="s"/>
+        <v>84</v>
+      </c>
+      <c r="G71" t="s">
+        <v>85</v>
+      </c>
       <c r="H71" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>86</v>
+      </c>
+      <c r="I71" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>16</v>
-      </c>
-      <c r="G72" t="s"/>
-      <c r="H72" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G72" t="s">
+        <v>34</v>
+      </c>
+      <c r="H72" t="s"/>
+      <c r="I72" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>71</v>
-      </c>
-      <c r="G73" t="s"/>
+        <v>84</v>
+      </c>
+      <c r="G73" t="s">
+        <v>85</v>
+      </c>
       <c r="H73" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>86</v>
+      </c>
+      <c r="I73" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>16</v>
-      </c>
-      <c r="G74" t="s"/>
-      <c r="H74" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G74" t="s">
+        <v>34</v>
+      </c>
+      <c r="H74" t="s"/>
+      <c r="I74" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>71</v>
-      </c>
-      <c r="G75" t="s"/>
+        <v>84</v>
+      </c>
+      <c r="G75" t="s">
+        <v>85</v>
+      </c>
       <c r="H75" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="76" spans="1:8">
+      <c r="I75" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>16</v>
-      </c>
-      <c r="G76" t="s"/>
-      <c r="H76" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G76" t="s">
+        <v>34</v>
+      </c>
+      <c r="H76" t="s"/>
+      <c r="I76" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>71</v>
-      </c>
-      <c r="G77" t="s"/>
+        <v>84</v>
+      </c>
+      <c r="G77" t="s">
+        <v>85</v>
+      </c>
       <c r="H77" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>86</v>
+      </c>
+      <c r="I77" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>16</v>
-      </c>
-      <c r="G78" t="s"/>
-      <c r="H78" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G78" t="s">
+        <v>34</v>
+      </c>
+      <c r="H78" t="s"/>
+      <c r="I78" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>71</v>
-      </c>
-      <c r="G79" t="s"/>
+        <v>84</v>
+      </c>
+      <c r="G79" t="s">
+        <v>85</v>
+      </c>
       <c r="H79" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>86</v>
+      </c>
+      <c r="I79" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>16</v>
-      </c>
-      <c r="G80" t="s"/>
-      <c r="H80" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G80" t="s">
+        <v>34</v>
+      </c>
+      <c r="H80" t="s"/>
+      <c r="I80" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>71</v>
-      </c>
-      <c r="G81" t="s"/>
+        <v>84</v>
+      </c>
+      <c r="G81" t="s">
+        <v>85</v>
+      </c>
       <c r="H81" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>86</v>
+      </c>
+      <c r="I81" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>16</v>
-      </c>
-      <c r="G82" t="s"/>
-      <c r="H82" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G82" t="s">
+        <v>34</v>
+      </c>
+      <c r="H82" t="s"/>
+      <c r="I82" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>71</v>
-      </c>
-      <c r="G83" t="s"/>
+        <v>84</v>
+      </c>
+      <c r="G83" t="s">
+        <v>85</v>
+      </c>
       <c r="H83" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>86</v>
+      </c>
+      <c r="I83" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>16</v>
-      </c>
-      <c r="G84" t="s"/>
-      <c r="H84" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G84" t="s">
+        <v>28</v>
+      </c>
+      <c r="H84" t="s"/>
+      <c r="I84" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>71</v>
-      </c>
-      <c r="G85" t="s"/>
+        <v>84</v>
+      </c>
+      <c r="G85" t="s">
+        <v>85</v>
+      </c>
       <c r="H85" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>86</v>
+      </c>
+      <c r="I85" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>11</v>
-      </c>
-      <c r="G86" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G86" t="s">
+        <v>13</v>
+      </c>
       <c r="H86" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I86" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>16</v>
-      </c>
-      <c r="G87" t="s"/>
-      <c r="H87" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G87" t="s">
+        <v>25</v>
+      </c>
+      <c r="H87" t="s"/>
+      <c r="I87" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>16</v>
-      </c>
-      <c r="G88" t="s"/>
-      <c r="H88" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G88" t="s">
+        <v>34</v>
+      </c>
+      <c r="H88" t="s"/>
+      <c r="I88" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>16</v>
-      </c>
-      <c r="G89" t="s"/>
-      <c r="H89" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G89" t="s">
+        <v>25</v>
+      </c>
+      <c r="H89" t="s"/>
+      <c r="I89" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>16</v>
-      </c>
-      <c r="G90" t="s"/>
-      <c r="H90" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G90" t="s">
+        <v>34</v>
+      </c>
+      <c r="H90" t="s"/>
+      <c r="I90" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>16</v>
-      </c>
-      <c r="G91" t="s"/>
-      <c r="H91" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G91" t="s">
+        <v>25</v>
+      </c>
+      <c r="H91" t="s"/>
+      <c r="I91" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>16</v>
-      </c>
-      <c r="G92" t="s"/>
-      <c r="H92" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G92" t="s">
+        <v>34</v>
+      </c>
+      <c r="H92" t="s"/>
+      <c r="I92" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>16</v>
-      </c>
-      <c r="G93" t="s"/>
-      <c r="H93" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G93" t="s">
+        <v>25</v>
+      </c>
+      <c r="H93" t="s"/>
+      <c r="I93" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>16</v>
-      </c>
-      <c r="G94" t="s"/>
-      <c r="H94" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G94" t="s">
+        <v>34</v>
+      </c>
+      <c r="H94" t="s"/>
+      <c r="I94" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>16</v>
-      </c>
-      <c r="G95" t="s"/>
-      <c r="H95" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G95" t="s">
+        <v>25</v>
+      </c>
+      <c r="H95" t="s"/>
+      <c r="I95" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>16</v>
-      </c>
-      <c r="G96" t="s"/>
-      <c r="H96" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G96" t="s">
+        <v>34</v>
+      </c>
+      <c r="H96" t="s"/>
+      <c r="I96" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>16</v>
-      </c>
-      <c r="G97" t="s"/>
-      <c r="H97" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G97" t="s">
+        <v>25</v>
+      </c>
+      <c r="H97" t="s"/>
+      <c r="I97" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>16</v>
-      </c>
-      <c r="G98" t="s"/>
-      <c r="H98" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G98" t="s">
+        <v>34</v>
+      </c>
+      <c r="H98" t="s"/>
+      <c r="I98" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>16</v>
-      </c>
-      <c r="G99" t="s"/>
-      <c r="H99" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G99" t="s">
+        <v>25</v>
+      </c>
+      <c r="H99" t="s"/>
+      <c r="I99" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>11</v>
-      </c>
-      <c r="G100" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G100" t="s">
+        <v>13</v>
+      </c>
       <c r="H100" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I100" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>112</v>
-      </c>
-      <c r="G101" t="s"/>
+        <v>127</v>
+      </c>
+      <c r="G101" t="s">
+        <v>128</v>
+      </c>
       <c r="H101" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>129</v>
+      </c>
+      <c r="I101" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>16</v>
-      </c>
-      <c r="G102" t="s"/>
-      <c r="H102" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G102" t="s">
+        <v>40</v>
+      </c>
+      <c r="H102" t="s"/>
+      <c r="I102" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>112</v>
-      </c>
-      <c r="G103" t="s"/>
+        <v>127</v>
+      </c>
+      <c r="G103" t="s">
+        <v>128</v>
+      </c>
       <c r="H103" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>129</v>
+      </c>
+      <c r="I103" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>16</v>
-      </c>
-      <c r="G104" t="s"/>
-      <c r="H104" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G104" t="s">
+        <v>40</v>
+      </c>
+      <c r="H104" t="s"/>
+      <c r="I104" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>112</v>
-      </c>
-      <c r="G105" t="s"/>
+        <v>127</v>
+      </c>
+      <c r="G105" t="s">
+        <v>128</v>
+      </c>
       <c r="H105" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>129</v>
+      </c>
+      <c r="I105" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>16</v>
-      </c>
-      <c r="G106" t="s"/>
-      <c r="H106" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G106" t="s">
+        <v>40</v>
+      </c>
+      <c r="H106" t="s"/>
+      <c r="I106" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>112</v>
-      </c>
-      <c r="G107" t="s"/>
+        <v>127</v>
+      </c>
+      <c r="G107" t="s">
+        <v>128</v>
+      </c>
       <c r="H107" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>129</v>
+      </c>
+      <c r="I107" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>16</v>
-      </c>
-      <c r="G108" t="s"/>
-      <c r="H108" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G108" t="s">
+        <v>40</v>
+      </c>
+      <c r="H108" t="s"/>
+      <c r="I108" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>112</v>
-      </c>
-      <c r="G109" t="s"/>
+        <v>127</v>
+      </c>
+      <c r="G109" t="s">
+        <v>128</v>
+      </c>
       <c r="H109" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>129</v>
+      </c>
+      <c r="I109" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>16</v>
-      </c>
-      <c r="G110" t="s"/>
-      <c r="H110" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G110" t="s">
+        <v>31</v>
+      </c>
+      <c r="H110" t="s"/>
+      <c r="I110" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>112</v>
-      </c>
-      <c r="G111" t="s"/>
+        <v>127</v>
+      </c>
+      <c r="G111" t="s">
+        <v>128</v>
+      </c>
       <c r="H111" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>129</v>
+      </c>
+      <c r="I111" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>11</v>
-      </c>
-      <c r="G112" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G112" t="s">
+        <v>13</v>
+      </c>
       <c r="H112" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I112" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>16</v>
-      </c>
-      <c r="G113" t="s"/>
-      <c r="H113" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G113" t="s">
+        <v>25</v>
+      </c>
+      <c r="H113" t="s"/>
+      <c r="I113" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>11</v>
-      </c>
-      <c r="G114" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G114" t="s">
+        <v>13</v>
+      </c>
       <c r="H114" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I114" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>16</v>
-      </c>
-      <c r="G115" t="s"/>
-      <c r="H115" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G115" t="s">
+        <v>25</v>
+      </c>
+      <c r="H115" t="s"/>
+      <c r="I115" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>127</v>
-      </c>
-      <c r="G116" t="s"/>
+        <v>144</v>
+      </c>
+      <c r="G116" t="s">
+        <v>145</v>
+      </c>
       <c r="H116" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>146</v>
+      </c>
+      <c r="I116" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>16</v>
-      </c>
-      <c r="G117" t="s"/>
-      <c r="H117" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G117" t="s">
+        <v>25</v>
+      </c>
+      <c r="H117" t="s"/>
+      <c r="I117" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>11</v>
-      </c>
-      <c r="G118" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G118" t="s">
+        <v>13</v>
+      </c>
       <c r="H118" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I118" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>127</v>
-      </c>
-      <c r="G119" t="s"/>
+        <v>144</v>
+      </c>
+      <c r="G119" t="s">
+        <v>145</v>
+      </c>
       <c r="H119" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>146</v>
+      </c>
+      <c r="I119" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>16</v>
-      </c>
-      <c r="G120" t="s"/>
-      <c r="H120" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G120" t="s">
+        <v>28</v>
+      </c>
+      <c r="H120" t="s"/>
+      <c r="I120" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>127</v>
-      </c>
-      <c r="G121" t="s"/>
+        <v>144</v>
+      </c>
+      <c r="G121" t="s">
+        <v>145</v>
+      </c>
       <c r="H121" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>146</v>
+      </c>
+      <c r="I121" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>16</v>
-      </c>
-      <c r="G122" t="s"/>
-      <c r="H122" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G122" t="s">
+        <v>28</v>
+      </c>
+      <c r="H122" t="s"/>
+      <c r="I122" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>127</v>
-      </c>
-      <c r="G123" t="s"/>
+        <v>144</v>
+      </c>
+      <c r="G123" t="s">
+        <v>145</v>
+      </c>
       <c r="H123" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>146</v>
+      </c>
+      <c r="I123" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>16</v>
-      </c>
-      <c r="G124" t="s"/>
-      <c r="H124" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G124" t="s">
+        <v>28</v>
+      </c>
+      <c r="H124" t="s"/>
+      <c r="I124" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>127</v>
-      </c>
-      <c r="G125" t="s"/>
+        <v>144</v>
+      </c>
+      <c r="G125" t="s">
+        <v>145</v>
+      </c>
       <c r="H125" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>146</v>
+      </c>
+      <c r="I125" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F126" t="s">
-        <v>16</v>
-      </c>
-      <c r="G126" t="s"/>
-      <c r="H126" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G126" t="s">
+        <v>28</v>
+      </c>
+      <c r="H126" t="s"/>
+      <c r="I126" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>127</v>
-      </c>
-      <c r="G127" t="s"/>
+        <v>144</v>
+      </c>
+      <c r="G127" t="s">
+        <v>145</v>
+      </c>
       <c r="H127" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>146</v>
+      </c>
+      <c r="I127" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F128" t="s">
-        <v>16</v>
-      </c>
-      <c r="G128" t="s"/>
-      <c r="H128" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G128" t="s">
+        <v>40</v>
+      </c>
+      <c r="H128" t="s"/>
+      <c r="I128" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F129" t="s">
-        <v>127</v>
-      </c>
-      <c r="G129" t="s"/>
+        <v>144</v>
+      </c>
+      <c r="G129" t="s">
+        <v>145</v>
+      </c>
       <c r="H129" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>146</v>
+      </c>
+      <c r="I129" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F130" t="s">
-        <v>16</v>
-      </c>
-      <c r="G130" t="s"/>
-      <c r="H130" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G130" t="s">
+        <v>40</v>
+      </c>
+      <c r="H130" t="s"/>
+      <c r="I130" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F131" t="s">
-        <v>127</v>
-      </c>
-      <c r="G131" t="s"/>
+        <v>144</v>
+      </c>
+      <c r="G131" t="s">
+        <v>145</v>
+      </c>
       <c r="H131" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>146</v>
+      </c>
+      <c r="I131" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F132" t="s">
-        <v>16</v>
-      </c>
-      <c r="G132" t="s"/>
-      <c r="H132" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G132" t="s">
+        <v>31</v>
+      </c>
+      <c r="H132" t="s"/>
+      <c r="I132" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F133" t="s">
-        <v>127</v>
-      </c>
-      <c r="G133" t="s"/>
+        <v>144</v>
+      </c>
+      <c r="G133" t="s">
+        <v>145</v>
+      </c>
       <c r="H133" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>146</v>
+      </c>
+      <c r="I133" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F134" t="s">
-        <v>11</v>
-      </c>
-      <c r="G134" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G134" t="s">
+        <v>13</v>
+      </c>
       <c r="H134" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I134" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F135" t="s">
-        <v>11</v>
-      </c>
-      <c r="G135" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G135" t="s">
+        <v>13</v>
+      </c>
       <c r="H135" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I135" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F136" t="s">
-        <v>16</v>
-      </c>
-      <c r="G136" t="s"/>
-      <c r="H136" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G136" t="s">
+        <v>28</v>
+      </c>
+      <c r="H136" t="s"/>
+      <c r="I136" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F137" t="s">
-        <v>11</v>
-      </c>
-      <c r="G137" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G137" t="s">
+        <v>13</v>
+      </c>
       <c r="H137" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I137" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F138" t="s">
-        <v>16</v>
-      </c>
-      <c r="G138" t="s"/>
-      <c r="H138" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G138" t="s">
+        <v>28</v>
+      </c>
+      <c r="H138" t="s"/>
+      <c r="I138" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F139" t="s">
-        <v>11</v>
-      </c>
-      <c r="G139" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G139" t="s">
+        <v>13</v>
+      </c>
       <c r="H139" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I139" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F140" t="s">
-        <v>16</v>
-      </c>
-      <c r="G140" t="s"/>
-      <c r="H140" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G140" t="s">
+        <v>31</v>
+      </c>
+      <c r="H140" t="s"/>
+      <c r="I140" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F141" t="s">
-        <v>11</v>
-      </c>
-      <c r="G141" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G141" t="s">
+        <v>13</v>
+      </c>
       <c r="H141" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I141" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F142" t="s">
-        <v>16</v>
-      </c>
-      <c r="G142" t="s"/>
-      <c r="H142" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G142" t="s">
+        <v>31</v>
+      </c>
+      <c r="H142" t="s"/>
+      <c r="I142" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F143" t="s">
-        <v>11</v>
-      </c>
-      <c r="G143" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G143" t="s">
+        <v>13</v>
+      </c>
       <c r="H143" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I143" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F144" t="s">
-        <v>16</v>
-      </c>
-      <c r="G144" t="s"/>
-      <c r="H144" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G144" t="s">
+        <v>31</v>
+      </c>
+      <c r="H144" t="s"/>
+      <c r="I144" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F145" t="s">
-        <v>11</v>
-      </c>
-      <c r="G145" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G145" t="s">
+        <v>13</v>
+      </c>
       <c r="H145" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I145" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F146" t="s">
-        <v>16</v>
-      </c>
-      <c r="G146" t="s"/>
-      <c r="H146" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G146" t="s">
+        <v>34</v>
+      </c>
+      <c r="H146" t="s"/>
+      <c r="I146" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F147" t="s">
-        <v>11</v>
-      </c>
-      <c r="G147" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G147" t="s">
+        <v>13</v>
+      </c>
       <c r="H147" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I147" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F148" t="s">
-        <v>16</v>
-      </c>
-      <c r="G148" t="s"/>
-      <c r="H148" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G148" t="s">
+        <v>34</v>
+      </c>
+      <c r="H148" t="s"/>
+      <c r="I148" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F149" t="s">
-        <v>11</v>
-      </c>
-      <c r="G149" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G149" t="s">
+        <v>13</v>
+      </c>
       <c r="H149" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I149" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F150" t="s">
-        <v>16</v>
-      </c>
-      <c r="G150" t="s"/>
-      <c r="H150" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="G150" t="s">
+        <v>34</v>
+      </c>
+      <c r="H150" t="s"/>
+      <c r="I150" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F151" t="s">
-        <v>11</v>
-      </c>
-      <c r="G151" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G151" t="s">
+        <v>13</v>
+      </c>
       <c r="H151" t="s">
-        <v>163</v>
+        <v>14</v>
+      </c>
+      <c r="I151" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg93599.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg93599.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="187">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>412468</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Marino</t>
   </si>
   <si>
@@ -67,6 +73,9 @@
     <t>412199</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Johnson</t>
   </si>
   <si>
@@ -173,6 +182,9 @@
   </si>
   <si>
     <t>412531</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Collins</t>
@@ -911,7 +923,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I151"/>
+  <dimension ref="A1:J151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -919,7 +931,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -944,4217 +956,4532 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" t="s"/>
-      <c r="I5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" t="s"/>
+      <c r="J5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" t="s"/>
+      <c r="J7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" t="s"/>
+      <c r="J9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
         <v>13</v>
       </c>
-      <c r="H10" t="s">
+      <c r="G12" t="s">
         <v>14</v>
       </c>
-      <c r="I10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
+        <v>37</v>
+      </c>
+      <c r="I13" t="s"/>
+      <c r="J13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
         <v>13</v>
       </c>
-      <c r="H12" t="s">
+      <c r="G14" t="s">
         <v>14</v>
       </c>
-      <c r="I12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" t="s">
-        <v>34</v>
-      </c>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" t="s">
-        <v>28</v>
-      </c>
-      <c r="H15" t="s"/>
-      <c r="I15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I15" t="s"/>
+      <c r="J15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" t="s">
-        <v>40</v>
-      </c>
-      <c r="H18" t="s"/>
-      <c r="I18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G18" t="s"/>
+      <c r="H18" t="s">
+        <v>43</v>
+      </c>
+      <c r="I18" t="s"/>
+      <c r="J18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I19" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" t="s">
-        <v>31</v>
-      </c>
-      <c r="H21" t="s"/>
-      <c r="I21" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G21" t="s"/>
+      <c r="H21" t="s">
+        <v>34</v>
+      </c>
+      <c r="I21" t="s"/>
+      <c r="J21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I23" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>21</v>
-      </c>
-      <c r="G24" t="s">
-        <v>34</v>
-      </c>
-      <c r="H24" t="s"/>
-      <c r="I24" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G24" t="s"/>
+      <c r="H24" t="s">
+        <v>37</v>
+      </c>
+      <c r="I24" t="s"/>
+      <c r="J24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I25" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>21</v>
-      </c>
-      <c r="G26" t="s">
-        <v>34</v>
-      </c>
-      <c r="H26" t="s"/>
-      <c r="I26" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G26" t="s"/>
+      <c r="H26" t="s">
+        <v>37</v>
+      </c>
+      <c r="I26" t="s"/>
+      <c r="J26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H27" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>21</v>
-      </c>
-      <c r="G28" t="s">
-        <v>34</v>
-      </c>
-      <c r="H28" t="s"/>
-      <c r="I28" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G28" t="s"/>
+      <c r="H28" t="s">
+        <v>37</v>
+      </c>
+      <c r="I28" t="s"/>
+      <c r="J28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I29" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J29" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H30" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I30" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J30" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G31" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H31" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I31" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>58</v>
+      </c>
+      <c r="J31" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G32" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H32" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I32" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J32" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G33" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H33" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I33" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>58</v>
+      </c>
+      <c r="J33" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H34" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I34" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J34" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G35" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H35" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I35" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>58</v>
+      </c>
+      <c r="J35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>21</v>
-      </c>
-      <c r="G36" t="s">
-        <v>34</v>
-      </c>
-      <c r="H36" t="s"/>
-      <c r="I36" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G36" t="s"/>
+      <c r="H36" t="s">
+        <v>37</v>
+      </c>
+      <c r="I36" t="s"/>
+      <c r="J36" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G37" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H37" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I37" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>58</v>
+      </c>
+      <c r="J37" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>21</v>
-      </c>
-      <c r="G38" t="s">
-        <v>34</v>
-      </c>
-      <c r="H38" t="s"/>
-      <c r="I38" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G38" t="s"/>
+      <c r="H38" t="s">
+        <v>37</v>
+      </c>
+      <c r="I38" t="s"/>
+      <c r="J38" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G39" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H39" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I39" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>58</v>
+      </c>
+      <c r="J39" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G40" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H40" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I40" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J40" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G41" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H41" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I41" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J41" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G42" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H42" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I42" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J42" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G43" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H43" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I43" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J43" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>21</v>
-      </c>
-      <c r="G44" t="s">
-        <v>28</v>
-      </c>
-      <c r="H44" t="s"/>
-      <c r="I44" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G44" t="s"/>
+      <c r="H44" t="s">
+        <v>31</v>
+      </c>
+      <c r="I44" t="s"/>
+      <c r="J44" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G45" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H45" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I45" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J45" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>21</v>
-      </c>
-      <c r="G46" t="s">
-        <v>28</v>
-      </c>
-      <c r="H46" t="s"/>
-      <c r="I46" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G46" t="s"/>
+      <c r="H46" t="s">
+        <v>31</v>
+      </c>
+      <c r="I46" t="s"/>
+      <c r="J46" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G47" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H47" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I47" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J47" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>21</v>
-      </c>
-      <c r="G48" t="s">
-        <v>28</v>
-      </c>
-      <c r="H48" t="s"/>
-      <c r="I48" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G48" t="s"/>
+      <c r="H48" t="s">
+        <v>31</v>
+      </c>
+      <c r="I48" t="s"/>
+      <c r="J48" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G49" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H49" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I49" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J49" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>21</v>
-      </c>
-      <c r="G50" t="s">
-        <v>28</v>
-      </c>
-      <c r="H50" t="s"/>
-      <c r="I50" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G50" t="s"/>
+      <c r="H50" t="s">
+        <v>31</v>
+      </c>
+      <c r="I50" t="s"/>
+      <c r="J50" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G51" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H51" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I51" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J51" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>21</v>
-      </c>
-      <c r="G52" t="s">
-        <v>28</v>
-      </c>
-      <c r="H52" t="s"/>
-      <c r="I52" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G52" t="s"/>
+      <c r="H52" t="s">
+        <v>31</v>
+      </c>
+      <c r="I52" t="s"/>
+      <c r="J52" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G53" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H53" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I53" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J53" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>21</v>
-      </c>
-      <c r="G54" t="s">
-        <v>28</v>
-      </c>
-      <c r="H54" t="s"/>
-      <c r="I54" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G54" t="s"/>
+      <c r="H54" t="s">
+        <v>31</v>
+      </c>
+      <c r="I54" t="s"/>
+      <c r="J54" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G55" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H55" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I55" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J55" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>21</v>
-      </c>
-      <c r="G56" t="s">
-        <v>28</v>
-      </c>
-      <c r="H56" t="s"/>
-      <c r="I56" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G56" t="s"/>
+      <c r="H56" t="s">
+        <v>31</v>
+      </c>
+      <c r="I56" t="s"/>
+      <c r="J56" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G57" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H57" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I57" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J57" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>21</v>
-      </c>
-      <c r="G58" t="s">
-        <v>34</v>
-      </c>
-      <c r="H58" t="s"/>
-      <c r="I58" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G58" t="s"/>
+      <c r="H58" t="s">
+        <v>37</v>
+      </c>
+      <c r="I58" t="s"/>
+      <c r="J58" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G59" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H59" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I59" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J59" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G60" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H60" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I60" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J60" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="G61" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="H61" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="I61" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>90</v>
+      </c>
+      <c r="J61" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>21</v>
-      </c>
-      <c r="G62" t="s">
-        <v>34</v>
-      </c>
-      <c r="H62" t="s"/>
-      <c r="I62" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G62" t="s"/>
+      <c r="H62" t="s">
+        <v>37</v>
+      </c>
+      <c r="I62" t="s"/>
+      <c r="J62" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="G63" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="H63" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="I63" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>90</v>
+      </c>
+      <c r="J63" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>21</v>
-      </c>
-      <c r="G64" t="s">
-        <v>34</v>
-      </c>
-      <c r="H64" t="s"/>
-      <c r="I64" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G64" t="s"/>
+      <c r="H64" t="s">
+        <v>37</v>
+      </c>
+      <c r="I64" t="s"/>
+      <c r="J64" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="G65" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="H65" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="I65" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>90</v>
+      </c>
+      <c r="J65" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>21</v>
-      </c>
-      <c r="G66" t="s">
-        <v>34</v>
-      </c>
-      <c r="H66" t="s"/>
-      <c r="I66" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G66" t="s"/>
+      <c r="H66" t="s">
+        <v>37</v>
+      </c>
+      <c r="I66" t="s"/>
+      <c r="J66" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="G67" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="H67" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="I67" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>90</v>
+      </c>
+      <c r="J67" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>21</v>
-      </c>
-      <c r="G68" t="s">
-        <v>34</v>
-      </c>
-      <c r="H68" t="s"/>
-      <c r="I68" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G68" t="s"/>
+      <c r="H68" t="s">
+        <v>37</v>
+      </c>
+      <c r="I68" t="s"/>
+      <c r="J68" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="G69" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="H69" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="I69" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>90</v>
+      </c>
+      <c r="J69" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>21</v>
-      </c>
-      <c r="G70" t="s">
-        <v>34</v>
-      </c>
-      <c r="H70" t="s"/>
-      <c r="I70" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G70" t="s"/>
+      <c r="H70" t="s">
+        <v>37</v>
+      </c>
+      <c r="I70" t="s"/>
+      <c r="J70" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="G71" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="H71" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="I71" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>90</v>
+      </c>
+      <c r="J71" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>21</v>
-      </c>
-      <c r="G72" t="s">
-        <v>34</v>
-      </c>
-      <c r="H72" t="s"/>
-      <c r="I72" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G72" t="s"/>
+      <c r="H72" t="s">
+        <v>37</v>
+      </c>
+      <c r="I72" t="s"/>
+      <c r="J72" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="G73" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="H73" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="I73" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>90</v>
+      </c>
+      <c r="J73" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>21</v>
-      </c>
-      <c r="G74" t="s">
-        <v>34</v>
-      </c>
-      <c r="H74" t="s"/>
-      <c r="I74" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G74" t="s"/>
+      <c r="H74" t="s">
+        <v>37</v>
+      </c>
+      <c r="I74" t="s"/>
+      <c r="J74" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="G75" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="H75" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="I75" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>90</v>
+      </c>
+      <c r="J75" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>21</v>
-      </c>
-      <c r="G76" t="s">
-        <v>34</v>
-      </c>
-      <c r="H76" t="s"/>
-      <c r="I76" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G76" t="s"/>
+      <c r="H76" t="s">
+        <v>37</v>
+      </c>
+      <c r="I76" t="s"/>
+      <c r="J76" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="G77" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="H77" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="I77" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>90</v>
+      </c>
+      <c r="J77" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>21</v>
-      </c>
-      <c r="G78" t="s">
-        <v>34</v>
-      </c>
-      <c r="H78" t="s"/>
-      <c r="I78" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G78" t="s"/>
+      <c r="H78" t="s">
+        <v>37</v>
+      </c>
+      <c r="I78" t="s"/>
+      <c r="J78" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="G79" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="H79" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="I79" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>90</v>
+      </c>
+      <c r="J79" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>21</v>
-      </c>
-      <c r="G80" t="s">
-        <v>34</v>
-      </c>
-      <c r="H80" t="s"/>
-      <c r="I80" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G80" t="s"/>
+      <c r="H80" t="s">
+        <v>37</v>
+      </c>
+      <c r="I80" t="s"/>
+      <c r="J80" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="G81" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="H81" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="I81" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>90</v>
+      </c>
+      <c r="J81" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>21</v>
-      </c>
-      <c r="G82" t="s">
-        <v>34</v>
-      </c>
-      <c r="H82" t="s"/>
-      <c r="I82" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G82" t="s"/>
+      <c r="H82" t="s">
+        <v>37</v>
+      </c>
+      <c r="I82" t="s"/>
+      <c r="J82" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="G83" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="H83" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="I83" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>90</v>
+      </c>
+      <c r="J83" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>21</v>
-      </c>
-      <c r="G84" t="s">
-        <v>28</v>
-      </c>
-      <c r="H84" t="s"/>
-      <c r="I84" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G84" t="s"/>
+      <c r="H84" t="s">
+        <v>31</v>
+      </c>
+      <c r="I84" t="s"/>
+      <c r="J84" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="G85" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="H85" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="I85" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>90</v>
+      </c>
+      <c r="J85" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G86" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H86" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I86" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J86" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>21</v>
-      </c>
-      <c r="G87" t="s">
-        <v>25</v>
-      </c>
-      <c r="H87" t="s"/>
-      <c r="I87" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G87" t="s"/>
+      <c r="H87" t="s">
+        <v>28</v>
+      </c>
+      <c r="I87" t="s"/>
+      <c r="J87" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>21</v>
-      </c>
-      <c r="G88" t="s">
-        <v>34</v>
-      </c>
-      <c r="H88" t="s"/>
-      <c r="I88" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G88" t="s"/>
+      <c r="H88" t="s">
+        <v>37</v>
+      </c>
+      <c r="I88" t="s"/>
+      <c r="J88" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>21</v>
-      </c>
-      <c r="G89" t="s">
-        <v>25</v>
-      </c>
-      <c r="H89" t="s"/>
-      <c r="I89" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G89" t="s"/>
+      <c r="H89" t="s">
+        <v>28</v>
+      </c>
+      <c r="I89" t="s"/>
+      <c r="J89" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>21</v>
-      </c>
-      <c r="G90" t="s">
-        <v>34</v>
-      </c>
-      <c r="H90" t="s"/>
-      <c r="I90" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G90" t="s"/>
+      <c r="H90" t="s">
+        <v>37</v>
+      </c>
+      <c r="I90" t="s"/>
+      <c r="J90" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>21</v>
-      </c>
-      <c r="G91" t="s">
-        <v>25</v>
-      </c>
-      <c r="H91" t="s"/>
-      <c r="I91" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G91" t="s"/>
+      <c r="H91" t="s">
+        <v>28</v>
+      </c>
+      <c r="I91" t="s"/>
+      <c r="J91" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>21</v>
-      </c>
-      <c r="G92" t="s">
-        <v>34</v>
-      </c>
-      <c r="H92" t="s"/>
-      <c r="I92" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G92" t="s"/>
+      <c r="H92" t="s">
+        <v>37</v>
+      </c>
+      <c r="I92" t="s"/>
+      <c r="J92" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>21</v>
-      </c>
-      <c r="G93" t="s">
-        <v>25</v>
-      </c>
-      <c r="H93" t="s"/>
-      <c r="I93" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G93" t="s"/>
+      <c r="H93" t="s">
+        <v>28</v>
+      </c>
+      <c r="I93" t="s"/>
+      <c r="J93" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>21</v>
-      </c>
-      <c r="G94" t="s">
-        <v>34</v>
-      </c>
-      <c r="H94" t="s"/>
-      <c r="I94" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G94" t="s"/>
+      <c r="H94" t="s">
+        <v>37</v>
+      </c>
+      <c r="I94" t="s"/>
+      <c r="J94" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>21</v>
-      </c>
-      <c r="G95" t="s">
-        <v>25</v>
-      </c>
-      <c r="H95" t="s"/>
-      <c r="I95" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G95" t="s"/>
+      <c r="H95" t="s">
+        <v>28</v>
+      </c>
+      <c r="I95" t="s"/>
+      <c r="J95" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>21</v>
-      </c>
-      <c r="G96" t="s">
-        <v>34</v>
-      </c>
-      <c r="H96" t="s"/>
-      <c r="I96" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G96" t="s"/>
+      <c r="H96" t="s">
+        <v>37</v>
+      </c>
+      <c r="I96" t="s"/>
+      <c r="J96" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>21</v>
-      </c>
-      <c r="G97" t="s">
-        <v>25</v>
-      </c>
-      <c r="H97" t="s"/>
-      <c r="I97" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G97" t="s"/>
+      <c r="H97" t="s">
+        <v>28</v>
+      </c>
+      <c r="I97" t="s"/>
+      <c r="J97" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>21</v>
-      </c>
-      <c r="G98" t="s">
-        <v>34</v>
-      </c>
-      <c r="H98" t="s"/>
-      <c r="I98" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G98" t="s"/>
+      <c r="H98" t="s">
+        <v>37</v>
+      </c>
+      <c r="I98" t="s"/>
+      <c r="J98" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>21</v>
-      </c>
-      <c r="G99" t="s">
-        <v>25</v>
-      </c>
-      <c r="H99" t="s"/>
-      <c r="I99" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G99" t="s"/>
+      <c r="H99" t="s">
+        <v>28</v>
+      </c>
+      <c r="I99" t="s"/>
+      <c r="J99" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G100" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H100" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I100" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J100" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="G101" t="s">
-        <v>128</v>
+        <v>56</v>
       </c>
       <c r="H101" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="I101" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>133</v>
+      </c>
+      <c r="J101" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>21</v>
-      </c>
-      <c r="G102" t="s">
-        <v>40</v>
-      </c>
-      <c r="H102" t="s"/>
-      <c r="I102" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G102" t="s"/>
+      <c r="H102" t="s">
+        <v>43</v>
+      </c>
+      <c r="I102" t="s"/>
+      <c r="J102" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="G103" t="s">
-        <v>128</v>
+        <v>56</v>
       </c>
       <c r="H103" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="I103" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>133</v>
+      </c>
+      <c r="J103" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>21</v>
-      </c>
-      <c r="G104" t="s">
-        <v>40</v>
-      </c>
-      <c r="H104" t="s"/>
-      <c r="I104" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G104" t="s"/>
+      <c r="H104" t="s">
+        <v>43</v>
+      </c>
+      <c r="I104" t="s"/>
+      <c r="J104" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="G105" t="s">
-        <v>128</v>
+        <v>56</v>
       </c>
       <c r="H105" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="I105" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>133</v>
+      </c>
+      <c r="J105" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>21</v>
-      </c>
-      <c r="G106" t="s">
-        <v>40</v>
-      </c>
-      <c r="H106" t="s"/>
-      <c r="I106" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G106" t="s"/>
+      <c r="H106" t="s">
+        <v>43</v>
+      </c>
+      <c r="I106" t="s"/>
+      <c r="J106" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="G107" t="s">
-        <v>128</v>
+        <v>56</v>
       </c>
       <c r="H107" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="I107" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>133</v>
+      </c>
+      <c r="J107" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>21</v>
-      </c>
-      <c r="G108" t="s">
-        <v>40</v>
-      </c>
-      <c r="H108" t="s"/>
-      <c r="I108" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G108" t="s"/>
+      <c r="H108" t="s">
+        <v>43</v>
+      </c>
+      <c r="I108" t="s"/>
+      <c r="J108" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="G109" t="s">
-        <v>128</v>
+        <v>56</v>
       </c>
       <c r="H109" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="I109" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>133</v>
+      </c>
+      <c r="J109" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>21</v>
-      </c>
-      <c r="G110" t="s">
-        <v>31</v>
-      </c>
-      <c r="H110" t="s"/>
-      <c r="I110" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G110" t="s"/>
+      <c r="H110" t="s">
+        <v>34</v>
+      </c>
+      <c r="I110" t="s"/>
+      <c r="J110" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="G111" t="s">
-        <v>128</v>
+        <v>56</v>
       </c>
       <c r="H111" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="I111" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>133</v>
+      </c>
+      <c r="J111" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G112" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H112" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I112" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J112" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>21</v>
-      </c>
-      <c r="G113" t="s">
-        <v>25</v>
-      </c>
-      <c r="H113" t="s"/>
-      <c r="I113" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G113" t="s"/>
+      <c r="H113" t="s">
+        <v>28</v>
+      </c>
+      <c r="I113" t="s"/>
+      <c r="J113" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G114" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H114" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I114" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J114" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>21</v>
-      </c>
-      <c r="G115" t="s">
-        <v>25</v>
-      </c>
-      <c r="H115" t="s"/>
-      <c r="I115" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G115" t="s"/>
+      <c r="H115" t="s">
+        <v>28</v>
+      </c>
+      <c r="I115" t="s"/>
+      <c r="J115" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="G116" t="s">
-        <v>145</v>
+        <v>56</v>
       </c>
       <c r="H116" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="I116" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>150</v>
+      </c>
+      <c r="J116" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>21</v>
-      </c>
-      <c r="G117" t="s">
-        <v>25</v>
-      </c>
-      <c r="H117" t="s"/>
-      <c r="I117" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G117" t="s"/>
+      <c r="H117" t="s">
+        <v>28</v>
+      </c>
+      <c r="I117" t="s"/>
+      <c r="J117" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G118" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H118" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I118" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J118" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F119" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="G119" t="s">
-        <v>145</v>
+        <v>56</v>
       </c>
       <c r="H119" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="I119" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="120" spans="1:9">
+      <c r="J119" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F120" t="s">
-        <v>21</v>
-      </c>
-      <c r="G120" t="s">
-        <v>28</v>
-      </c>
-      <c r="H120" t="s"/>
-      <c r="I120" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G120" t="s"/>
+      <c r="H120" t="s">
+        <v>31</v>
+      </c>
+      <c r="I120" t="s"/>
+      <c r="J120" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F121" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="G121" t="s">
-        <v>145</v>
+        <v>56</v>
       </c>
       <c r="H121" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="I121" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>150</v>
+      </c>
+      <c r="J121" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E122" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F122" t="s">
-        <v>21</v>
-      </c>
-      <c r="G122" t="s">
-        <v>28</v>
-      </c>
-      <c r="H122" t="s"/>
-      <c r="I122" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G122" t="s"/>
+      <c r="H122" t="s">
+        <v>31</v>
+      </c>
+      <c r="I122" t="s"/>
+      <c r="J122" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F123" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="G123" t="s">
-        <v>145</v>
+        <v>56</v>
       </c>
       <c r="H123" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="I123" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>150</v>
+      </c>
+      <c r="J123" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F124" t="s">
-        <v>21</v>
-      </c>
-      <c r="G124" t="s">
-        <v>28</v>
-      </c>
-      <c r="H124" t="s"/>
-      <c r="I124" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G124" t="s"/>
+      <c r="H124" t="s">
+        <v>31</v>
+      </c>
+      <c r="I124" t="s"/>
+      <c r="J124" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E125" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F125" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="G125" t="s">
-        <v>145</v>
+        <v>56</v>
       </c>
       <c r="H125" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="I125" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>150</v>
+      </c>
+      <c r="J125" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E126" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F126" t="s">
-        <v>21</v>
-      </c>
-      <c r="G126" t="s">
-        <v>28</v>
-      </c>
-      <c r="H126" t="s"/>
-      <c r="I126" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G126" t="s"/>
+      <c r="H126" t="s">
+        <v>31</v>
+      </c>
+      <c r="I126" t="s"/>
+      <c r="J126" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E127" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F127" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="G127" t="s">
-        <v>145</v>
+        <v>56</v>
       </c>
       <c r="H127" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="I127" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>150</v>
+      </c>
+      <c r="J127" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E128" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F128" t="s">
-        <v>21</v>
-      </c>
-      <c r="G128" t="s">
-        <v>40</v>
-      </c>
-      <c r="H128" t="s"/>
-      <c r="I128" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G128" t="s"/>
+      <c r="H128" t="s">
+        <v>43</v>
+      </c>
+      <c r="I128" t="s"/>
+      <c r="J128" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E129" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F129" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="G129" t="s">
-        <v>145</v>
+        <v>56</v>
       </c>
       <c r="H129" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="I129" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>150</v>
+      </c>
+      <c r="J129" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E130" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F130" t="s">
-        <v>21</v>
-      </c>
-      <c r="G130" t="s">
-        <v>40</v>
-      </c>
-      <c r="H130" t="s"/>
-      <c r="I130" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G130" t="s"/>
+      <c r="H130" t="s">
+        <v>43</v>
+      </c>
+      <c r="I130" t="s"/>
+      <c r="J130" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E131" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F131" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="G131" t="s">
-        <v>145</v>
+        <v>56</v>
       </c>
       <c r="H131" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="I131" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>150</v>
+      </c>
+      <c r="J131" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E132" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F132" t="s">
-        <v>21</v>
-      </c>
-      <c r="G132" t="s">
-        <v>31</v>
-      </c>
-      <c r="H132" t="s"/>
-      <c r="I132" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G132" t="s"/>
+      <c r="H132" t="s">
+        <v>34</v>
+      </c>
+      <c r="I132" t="s"/>
+      <c r="J132" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E133" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F133" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="G133" t="s">
-        <v>145</v>
+        <v>56</v>
       </c>
       <c r="H133" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="I133" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>150</v>
+      </c>
+      <c r="J133" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E134" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F134" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G134" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H134" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I134" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J134" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E135" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F135" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G135" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H135" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I135" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J135" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E136" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F136" t="s">
-        <v>21</v>
-      </c>
-      <c r="G136" t="s">
-        <v>28</v>
-      </c>
-      <c r="H136" t="s"/>
-      <c r="I136" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G136" t="s"/>
+      <c r="H136" t="s">
+        <v>31</v>
+      </c>
+      <c r="I136" t="s"/>
+      <c r="J136" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E137" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F137" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G137" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H137" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I137" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J137" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E138" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F138" t="s">
-        <v>21</v>
-      </c>
-      <c r="G138" t="s">
-        <v>28</v>
-      </c>
-      <c r="H138" t="s"/>
-      <c r="I138" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G138" t="s"/>
+      <c r="H138" t="s">
+        <v>31</v>
+      </c>
+      <c r="I138" t="s"/>
+      <c r="J138" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E139" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F139" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G139" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H139" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I139" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J139" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E140" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F140" t="s">
-        <v>21</v>
-      </c>
-      <c r="G140" t="s">
-        <v>31</v>
-      </c>
-      <c r="H140" t="s"/>
-      <c r="I140" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G140" t="s"/>
+      <c r="H140" t="s">
+        <v>34</v>
+      </c>
+      <c r="I140" t="s"/>
+      <c r="J140" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E141" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F141" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G141" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H141" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I141" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J141" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E142" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F142" t="s">
-        <v>21</v>
-      </c>
-      <c r="G142" t="s">
-        <v>31</v>
-      </c>
-      <c r="H142" t="s"/>
-      <c r="I142" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G142" t="s"/>
+      <c r="H142" t="s">
+        <v>34</v>
+      </c>
+      <c r="I142" t="s"/>
+      <c r="J142" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E143" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F143" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G143" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H143" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I143" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J143" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E144" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F144" t="s">
-        <v>21</v>
-      </c>
-      <c r="G144" t="s">
-        <v>31</v>
-      </c>
-      <c r="H144" t="s"/>
-      <c r="I144" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G144" t="s"/>
+      <c r="H144" t="s">
+        <v>34</v>
+      </c>
+      <c r="I144" t="s"/>
+      <c r="J144" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E145" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F145" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G145" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H145" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I145" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J145" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E146" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F146" t="s">
-        <v>21</v>
-      </c>
-      <c r="G146" t="s">
-        <v>34</v>
-      </c>
-      <c r="H146" t="s"/>
-      <c r="I146" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G146" t="s"/>
+      <c r="H146" t="s">
+        <v>37</v>
+      </c>
+      <c r="I146" t="s"/>
+      <c r="J146" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E147" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F147" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G147" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H147" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I147" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J147" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E148" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F148" t="s">
-        <v>21</v>
-      </c>
-      <c r="G148" t="s">
-        <v>34</v>
-      </c>
-      <c r="H148" t="s"/>
-      <c r="I148" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G148" t="s"/>
+      <c r="H148" t="s">
+        <v>37</v>
+      </c>
+      <c r="I148" t="s"/>
+      <c r="J148" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E149" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F149" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G149" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H149" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I149" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J149" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E150" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F150" t="s">
-        <v>21</v>
-      </c>
-      <c r="G150" t="s">
-        <v>34</v>
-      </c>
-      <c r="H150" t="s"/>
-      <c r="I150" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9">
+        <v>24</v>
+      </c>
+      <c r="G150" t="s"/>
+      <c r="H150" t="s">
+        <v>37</v>
+      </c>
+      <c r="I150" t="s"/>
+      <c r="J150" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E151" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F151" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G151" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H151" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I151" t="s">
-        <v>182</v>
+        <v>16</v>
+      </c>
+      <c r="J151" t="s">
+        <v>186</v>
       </c>
     </row>
   </sheetData>
